--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-03/价格新高新低/最近一年中股价创历史新高,行业.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析与计划/2022-03/价格新高新低/最近一年中股价创历史新高,行业.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$E$1:$E$561</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$D$1:$D$561</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">选股结果!$B$1:$B$561</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -5570,8 +5570,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -5601,6 +5601,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -5609,38 +5624,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -5655,7 +5640,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5664,6 +5656,21 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5686,22 +5693,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5715,8 +5707,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5731,15 +5732,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5772,31 +5772,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5814,37 +5832,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5856,85 +5856,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5952,7 +5880,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6025,6 +6025,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -6045,6 +6054,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -6056,30 +6091,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6098,166 +6109,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6266,12 +6266,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6335,7 +6329,15 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC00000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -19611,11 +19613,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E561"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.94117647058824" defaultRowHeight="14.8" outlineLevelCol="4"/>
@@ -19637,7 +19639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="41" spans="1:5">
+    <row r="2" ht="41" hidden="1" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -19650,7 +19652,7 @@
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="6">
         <f>COUNTIF(C2:C561,D2)</f>
         <v>7</v>
       </c>
@@ -19668,12 +19670,12 @@
       <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <f>COUNTIF(C3:C562,D3)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="28" spans="1:5">
+    <row r="4" ht="28" hidden="1" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -19686,12 +19688,12 @@
       <c r="D4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <f t="shared" ref="E3:E11" si="0">COUNTIF(C4:C563,D4)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="41" spans="1:5">
+    <row r="5" ht="41" hidden="1" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -19704,12 +19706,12 @@
       <c r="D5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="6" ht="41" spans="1:5">
+    <row r="6" ht="41" hidden="1" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -19722,12 +19724,12 @@
       <c r="D6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="7" ht="41" spans="1:5">
+    <row r="7" ht="41" hidden="1" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -19740,12 +19742,12 @@
       <c r="D7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="8" ht="41" spans="1:5">
+    <row r="8" ht="41" hidden="1" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -19758,12 +19760,12 @@
       <c r="D8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="9" ht="28" spans="1:5">
+    <row r="9" ht="28" hidden="1" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
@@ -19776,12 +19778,12 @@
       <c r="D9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="10" ht="41" spans="1:5">
+    <row r="10" ht="41" hidden="1" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
@@ -19794,12 +19796,12 @@
       <c r="D10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="11" ht="41" spans="1:5">
+    <row r="11" ht="41" hidden="1" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>43</v>
       </c>
@@ -19809,15 +19811,15 @@
       <c r="C11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="12" ht="41" spans="1:5">
+    <row r="12" ht="41" hidden="1" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>47</v>
       </c>
@@ -19827,15 +19829,15 @@
       <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="6">
         <f t="shared" ref="E12:E43" si="1">COUNTIF(C12:C571,D12)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="13" ht="41" spans="1:5">
+    <row r="13" ht="41" hidden="1" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>50</v>
       </c>
@@ -19845,15 +19847,15 @@
       <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="14" ht="41" spans="1:5">
+    <row r="14" ht="41" hidden="1" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>53</v>
       </c>
@@ -19863,15 +19865,15 @@
       <c r="C14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="15" ht="41" spans="1:5">
+    <row r="15" ht="41" hidden="1" spans="1:5">
       <c r="A15" s="3" t="s">
         <v>57</v>
       </c>
@@ -19881,15 +19883,15 @@
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="6">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="16" ht="41" spans="1:5">
+    <row r="16" ht="41" hidden="1" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>60</v>
       </c>
@@ -19899,10 +19901,10 @@
       <c r="C16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -19917,15 +19919,15 @@
       <c r="C17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="6">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="18" ht="28" spans="1:5">
+    <row r="18" ht="28" hidden="1" spans="1:5">
       <c r="A18" s="3" t="s">
         <v>67</v>
       </c>
@@ -19935,15 +19937,15 @@
       <c r="C18" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="19" ht="28" spans="1:5">
+    <row r="19" ht="28" hidden="1" spans="1:5">
       <c r="A19" s="3" t="s">
         <v>71</v>
       </c>
@@ -19953,10 +19955,10 @@
       <c r="C19" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -19971,15 +19973,15 @@
       <c r="C20" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="6">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="21" ht="28" spans="1:5">
+    <row r="21" ht="28" hidden="1" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>79</v>
       </c>
@@ -19989,15 +19991,15 @@
       <c r="C21" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="22" ht="28" spans="1:5">
+    <row r="22" ht="28" hidden="1" spans="1:5">
       <c r="A22" s="3" t="s">
         <v>83</v>
       </c>
@@ -20007,15 +20009,15 @@
       <c r="C22" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="23" ht="41" spans="1:5">
+    <row r="23" ht="41" hidden="1" spans="1:5">
       <c r="A23" s="3" t="s">
         <v>86</v>
       </c>
@@ -20025,15 +20027,15 @@
       <c r="C23" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="6">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="24" ht="41" spans="1:5">
+    <row r="24" ht="41" hidden="1" spans="1:5">
       <c r="A24" s="3" t="s">
         <v>90</v>
       </c>
@@ -20043,15 +20045,15 @@
       <c r="C24" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="25" ht="28" spans="1:5">
+    <row r="25" ht="28" hidden="1" spans="1:5">
       <c r="A25" s="3" t="s">
         <v>94</v>
       </c>
@@ -20061,15 +20063,15 @@
       <c r="C25" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="26" ht="41" spans="1:5">
+    <row r="26" ht="41" hidden="1" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>98</v>
       </c>
@@ -20079,15 +20081,15 @@
       <c r="C26" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="6">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="27" ht="41" spans="1:5">
+    <row r="27" ht="41" hidden="1" spans="1:5">
       <c r="A27" s="3" t="s">
         <v>102</v>
       </c>
@@ -20097,15 +20099,15 @@
       <c r="C27" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="28" ht="41" spans="1:5">
+    <row r="28" ht="41" hidden="1" spans="1:5">
       <c r="A28" s="3" t="s">
         <v>106</v>
       </c>
@@ -20115,15 +20117,15 @@
       <c r="C28" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="29" ht="41" spans="1:5">
+    <row r="29" ht="41" hidden="1" spans="1:5">
       <c r="A29" s="3" t="s">
         <v>110</v>
       </c>
@@ -20133,15 +20135,15 @@
       <c r="C29" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="30" ht="28" spans="1:5">
+    <row r="30" ht="28" hidden="1" spans="1:5">
       <c r="A30" s="3" t="s">
         <v>114</v>
       </c>
@@ -20151,10 +20153,10 @@
       <c r="C30" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -20169,15 +20171,15 @@
       <c r="C31" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="6">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="32" ht="41" spans="1:5">
+    <row r="32" ht="41" hidden="1" spans="1:5">
       <c r="A32" s="3" t="s">
         <v>122</v>
       </c>
@@ -20187,15 +20189,15 @@
       <c r="C32" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="33" ht="41" spans="1:5">
+    <row r="33" ht="41" hidden="1" spans="1:5">
       <c r="A33" s="3" t="s">
         <v>126</v>
       </c>
@@ -20205,10 +20207,10 @@
       <c r="C33" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -20223,15 +20225,15 @@
       <c r="C34" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="6">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
     </row>
-    <row r="35" ht="41" spans="1:5">
+    <row r="35" ht="41" hidden="1" spans="1:5">
       <c r="A35" s="3" t="s">
         <v>134</v>
       </c>
@@ -20241,15 +20243,15 @@
       <c r="C35" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="36" ht="28" spans="1:5">
+    <row r="36" ht="28" hidden="1" spans="1:5">
       <c r="A36" s="3" t="s">
         <v>138</v>
       </c>
@@ -20259,15 +20261,15 @@
       <c r="C36" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="6">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="37" ht="41" spans="1:5">
+    <row r="37" ht="41" hidden="1" spans="1:5">
       <c r="A37" s="3" t="s">
         <v>142</v>
       </c>
@@ -20277,15 +20279,15 @@
       <c r="C37" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="38" ht="41" spans="1:5">
+    <row r="38" ht="41" hidden="1" spans="1:5">
       <c r="A38" s="3" t="s">
         <v>146</v>
       </c>
@@ -20295,15 +20297,15 @@
       <c r="C38" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="39" ht="41" spans="1:5">
+    <row r="39" ht="41" hidden="1" spans="1:5">
       <c r="A39" s="3" t="s">
         <v>150</v>
       </c>
@@ -20313,15 +20315,15 @@
       <c r="C39" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="40" ht="41" spans="1:5">
+    <row r="40" ht="41" hidden="1" spans="1:5">
       <c r="A40" s="3" t="s">
         <v>154</v>
       </c>
@@ -20331,15 +20333,15 @@
       <c r="C40" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="41" ht="28" spans="1:5">
+    <row r="41" ht="28" hidden="1" spans="1:5">
       <c r="A41" s="3" t="s">
         <v>157</v>
       </c>
@@ -20349,15 +20351,15 @@
       <c r="C41" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="42" ht="41" spans="1:5">
+    <row r="42" ht="41" hidden="1" spans="1:5">
       <c r="A42" s="3" t="s">
         <v>161</v>
       </c>
@@ -20367,15 +20369,15 @@
       <c r="C42" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="43" ht="41" spans="1:5">
+    <row r="43" ht="41" hidden="1" spans="1:5">
       <c r="A43" s="3" t="s">
         <v>164</v>
       </c>
@@ -20385,15 +20387,15 @@
       <c r="C43" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="44" ht="41" spans="1:5">
+    <row r="44" ht="41" hidden="1" spans="1:5">
       <c r="A44" s="3" t="s">
         <v>168</v>
       </c>
@@ -20403,15 +20405,15 @@
       <c r="C44" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="6">
         <f t="shared" ref="E44:E75" si="2">COUNTIF(C44:C603,D44)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="45" ht="41" spans="1:5">
+    <row r="45" ht="41" hidden="1" spans="1:5">
       <c r="A45" s="3" t="s">
         <v>171</v>
       </c>
@@ -20421,15 +20423,15 @@
       <c r="C45" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="6">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="46" ht="41" spans="1:5">
+    <row r="46" ht="41" hidden="1" spans="1:5">
       <c r="A46" s="3" t="s">
         <v>174</v>
       </c>
@@ -20439,15 +20441,15 @@
       <c r="C46" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="6">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="47" ht="41" spans="1:5">
+    <row r="47" ht="41" hidden="1" spans="1:5">
       <c r="A47" s="3" t="s">
         <v>178</v>
       </c>
@@ -20457,15 +20459,15 @@
       <c r="C47" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="6">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="48" ht="41" spans="1:5">
+    <row r="48" ht="41" hidden="1" spans="1:5">
       <c r="A48" s="3" t="s">
         <v>182</v>
       </c>
@@ -20475,15 +20477,15 @@
       <c r="C48" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E48" s="6">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="49" ht="41" spans="1:5">
+    <row r="49" ht="41" hidden="1" spans="1:5">
       <c r="A49" s="3" t="s">
         <v>186</v>
       </c>
@@ -20493,15 +20495,15 @@
       <c r="C49" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="6">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="50" ht="41" spans="1:5">
+    <row r="50" ht="41" hidden="1" spans="1:5">
       <c r="A50" s="3" t="s">
         <v>189</v>
       </c>
@@ -20511,15 +20513,15 @@
       <c r="C50" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E50" s="6">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="51" ht="41" spans="1:5">
+    <row r="51" ht="41" hidden="1" spans="1:5">
       <c r="A51" s="3" t="s">
         <v>193</v>
       </c>
@@ -20529,15 +20531,15 @@
       <c r="C51" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E51" s="6">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="52" ht="41" spans="1:5">
+    <row r="52" ht="41" hidden="1" spans="1:5">
       <c r="A52" s="3" t="s">
         <v>197</v>
       </c>
@@ -20547,15 +20549,15 @@
       <c r="C52" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E52" s="6">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="53" ht="28" spans="1:5">
+    <row r="53" ht="28" hidden="1" spans="1:5">
       <c r="A53" s="3" t="s">
         <v>201</v>
       </c>
@@ -20565,15 +20567,15 @@
       <c r="C53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="6">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="54" ht="28" spans="1:5">
+    <row r="54" ht="28" hidden="1" spans="1:5">
       <c r="A54" s="3" t="s">
         <v>204</v>
       </c>
@@ -20583,15 +20585,15 @@
       <c r="C54" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E54" s="6">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="55" ht="41" spans="1:5">
+    <row r="55" ht="41" hidden="1" spans="1:5">
       <c r="A55" s="3" t="s">
         <v>207</v>
       </c>
@@ -20601,15 +20603,15 @@
       <c r="C55" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E55" s="6">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="56" ht="28" spans="1:5">
+    <row r="56" ht="28" hidden="1" spans="1:5">
       <c r="A56" s="3" t="s">
         <v>211</v>
       </c>
@@ -20619,15 +20621,15 @@
       <c r="C56" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="E56" s="8">
+      <c r="E56" s="6">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="57" ht="41" spans="1:5">
+    <row r="57" ht="41" hidden="1" spans="1:5">
       <c r="A57" s="3" t="s">
         <v>215</v>
       </c>
@@ -20637,15 +20639,15 @@
       <c r="C57" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="E57" s="8">
+      <c r="E57" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="58" ht="41" spans="1:5">
+    <row r="58" ht="41" hidden="1" spans="1:5">
       <c r="A58" s="3" t="s">
         <v>218</v>
       </c>
@@ -20655,15 +20657,15 @@
       <c r="C58" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="E58" s="8">
+      <c r="E58" s="6">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="59" ht="41" spans="1:5">
+    <row r="59" ht="41" hidden="1" spans="1:5">
       <c r="A59" s="3" t="s">
         <v>221</v>
       </c>
@@ -20673,10 +20675,10 @@
       <c r="C59" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="E59" s="8">
+      <c r="E59" s="6">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -20691,15 +20693,15 @@
       <c r="C60" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="E60" s="8">
+      <c r="E60" s="6">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="61" ht="28" spans="1:5">
+    <row r="61" ht="28" hidden="1" spans="1:5">
       <c r="A61" s="3" t="s">
         <v>227</v>
       </c>
@@ -20709,10 +20711,10 @@
       <c r="C61" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="E61" s="8">
+      <c r="E61" s="6">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -20727,15 +20729,15 @@
       <c r="C62" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="E62" s="8">
+      <c r="E62" s="6">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
-    <row r="63" ht="41" spans="1:5">
+    <row r="63" ht="41" hidden="1" spans="1:5">
       <c r="A63" s="3" t="s">
         <v>235</v>
       </c>
@@ -20745,15 +20747,15 @@
       <c r="C63" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="E63" s="8">
+      <c r="E63" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="64" ht="28" spans="1:5">
+    <row r="64" ht="28" hidden="1" spans="1:5">
       <c r="A64" s="3" t="s">
         <v>239</v>
       </c>
@@ -20763,15 +20765,15 @@
       <c r="C64" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="E64" s="8">
+      <c r="E64" s="6">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="65" ht="41" spans="1:5">
+    <row r="65" ht="41" hidden="1" spans="1:5">
       <c r="A65" s="3" t="s">
         <v>242</v>
       </c>
@@ -20781,15 +20783,15 @@
       <c r="C65" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="E65" s="8">
+      <c r="E65" s="6">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="66" ht="41" spans="1:5">
+    <row r="66" ht="41" hidden="1" spans="1:5">
       <c r="A66" s="3" t="s">
         <v>246</v>
       </c>
@@ -20799,15 +20801,15 @@
       <c r="C66" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="E66" s="8">
+      <c r="E66" s="6">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="67" ht="41" spans="1:5">
+    <row r="67" ht="41" hidden="1" spans="1:5">
       <c r="A67" s="3" t="s">
         <v>249</v>
       </c>
@@ -20817,15 +20819,15 @@
       <c r="C67" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D67" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="E67" s="8">
+      <c r="E67" s="6">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="68" ht="41" spans="1:5">
+    <row r="68" ht="41" hidden="1" spans="1:5">
       <c r="A68" s="3" t="s">
         <v>252</v>
       </c>
@@ -20835,15 +20837,15 @@
       <c r="C68" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="E68" s="8">
+      <c r="E68" s="6">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="69" ht="28" spans="1:5">
+    <row r="69" ht="28" hidden="1" spans="1:5">
       <c r="A69" s="3" t="s">
         <v>255</v>
       </c>
@@ -20853,15 +20855,15 @@
       <c r="C69" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="E69" s="8">
+      <c r="E69" s="6">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="70" ht="41" spans="1:5">
+    <row r="70" ht="41" hidden="1" spans="1:5">
       <c r="A70" s="3" t="s">
         <v>259</v>
       </c>
@@ -20871,15 +20873,15 @@
       <c r="C70" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="E70" s="8">
+      <c r="E70" s="6">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="71" ht="28" spans="1:5">
+    <row r="71" ht="28" hidden="1" spans="1:5">
       <c r="A71" s="3" t="s">
         <v>263</v>
       </c>
@@ -20889,15 +20891,15 @@
       <c r="C71" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D71" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="E71" s="8">
+      <c r="E71" s="6">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="72" ht="28" spans="1:5">
+    <row r="72" ht="28" hidden="1" spans="1:5">
       <c r="A72" s="3" t="s">
         <v>267</v>
       </c>
@@ -20907,15 +20909,15 @@
       <c r="C72" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="E72" s="8">
+      <c r="E72" s="6">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="73" ht="28" spans="1:5">
+    <row r="73" ht="28" hidden="1" spans="1:5">
       <c r="A73" s="3" t="s">
         <v>271</v>
       </c>
@@ -20925,15 +20927,15 @@
       <c r="C73" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D73" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="E73" s="8">
+      <c r="E73" s="6">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="74" ht="41" spans="1:5">
+    <row r="74" ht="41" hidden="1" spans="1:5">
       <c r="A74" s="3" t="s">
         <v>275</v>
       </c>
@@ -20943,15 +20945,15 @@
       <c r="C74" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D74" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="E74" s="8">
+      <c r="E74" s="6">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="75" ht="28" spans="1:5">
+    <row r="75" ht="28" hidden="1" spans="1:5">
       <c r="A75" s="3" t="s">
         <v>278</v>
       </c>
@@ -20961,15 +20963,15 @@
       <c r="C75" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D75" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="E75" s="8">
+      <c r="E75" s="6">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="76" ht="41" spans="1:5">
+    <row r="76" ht="41" hidden="1" spans="1:5">
       <c r="A76" s="3" t="s">
         <v>281</v>
       </c>
@@ -20979,15 +20981,15 @@
       <c r="C76" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="D76" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="E76" s="8">
+      <c r="E76" s="6">
         <f t="shared" ref="E76:E107" si="3">COUNTIF(C76:C635,D76)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="77" ht="28" spans="1:5">
+    <row r="77" ht="28" hidden="1" spans="1:5">
       <c r="A77" s="3" t="s">
         <v>284</v>
       </c>
@@ -20997,15 +20999,15 @@
       <c r="C77" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="D77" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="E77" s="8">
+      <c r="E77" s="6">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="78" ht="41" spans="1:5">
+    <row r="78" ht="41" hidden="1" spans="1:5">
       <c r="A78" s="3" t="s">
         <v>287</v>
       </c>
@@ -21015,15 +21017,15 @@
       <c r="C78" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="D78" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="E78" s="8">
+      <c r="E78" s="6">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="79" ht="41" spans="1:5">
+    <row r="79" ht="41" hidden="1" spans="1:5">
       <c r="A79" s="3" t="s">
         <v>291</v>
       </c>
@@ -21033,10 +21035,10 @@
       <c r="C79" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="D79" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="E79" s="8">
+      <c r="E79" s="6">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -21051,15 +21053,15 @@
       <c r="C80" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="E80" s="8">
+      <c r="E80" s="6">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
-    <row r="81" ht="41" spans="1:5">
+    <row r="81" ht="41" hidden="1" spans="1:5">
       <c r="A81" s="3" t="s">
         <v>298</v>
       </c>
@@ -21069,15 +21071,15 @@
       <c r="C81" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="D81" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="E81" s="8">
+      <c r="E81" s="6">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="82" ht="41" spans="1:5">
+    <row r="82" ht="41" hidden="1" spans="1:5">
       <c r="A82" s="3" t="s">
         <v>302</v>
       </c>
@@ -21087,15 +21089,15 @@
       <c r="C82" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D82" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="E82" s="8">
+      <c r="E82" s="6">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="83" ht="41" spans="1:5">
+    <row r="83" ht="41" hidden="1" spans="1:5">
       <c r="A83" s="3" t="s">
         <v>305</v>
       </c>
@@ -21105,15 +21107,15 @@
       <c r="C83" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D83" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="E83" s="8">
+      <c r="E83" s="6">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="84" ht="41" spans="1:5">
+    <row r="84" ht="41" hidden="1" spans="1:5">
       <c r="A84" s="3" t="s">
         <v>309</v>
       </c>
@@ -21123,15 +21125,15 @@
       <c r="C84" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D84" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="E84" s="8">
+      <c r="E84" s="6">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
-    <row r="85" ht="41" spans="1:5">
+    <row r="85" ht="41" hidden="1" spans="1:5">
       <c r="A85" s="3" t="s">
         <v>313</v>
       </c>
@@ -21141,15 +21143,15 @@
       <c r="C85" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D85" s="6" t="s">
+      <c r="D85" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="E85" s="8">
+      <c r="E85" s="6">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="86" ht="41" spans="1:5">
+    <row r="86" ht="41" hidden="1" spans="1:5">
       <c r="A86" s="3" t="s">
         <v>316</v>
       </c>
@@ -21159,15 +21161,15 @@
       <c r="C86" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="D86" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="E86" s="8">
+      <c r="E86" s="6">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="87" ht="41" spans="1:5">
+    <row r="87" ht="41" hidden="1" spans="1:5">
       <c r="A87" s="3" t="s">
         <v>320</v>
       </c>
@@ -21177,15 +21179,15 @@
       <c r="C87" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="D87" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="E87" s="8">
+      <c r="E87" s="6">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
-    <row r="88" ht="41" spans="1:5">
+    <row r="88" ht="41" hidden="1" spans="1:5">
       <c r="A88" s="3" t="s">
         <v>323</v>
       </c>
@@ -21195,15 +21197,15 @@
       <c r="C88" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="D88" s="4" t="s">
         <v>716</v>
       </c>
-      <c r="E88" s="8">
+      <c r="E88" s="6">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="89" ht="41" spans="1:5">
+    <row r="89" ht="41" hidden="1" spans="1:5">
       <c r="A89" s="3" t="s">
         <v>327</v>
       </c>
@@ -21213,15 +21215,15 @@
       <c r="C89" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="D89" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="E89" s="8">
+      <c r="E89" s="6">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="90" ht="41" spans="1:5">
+    <row r="90" ht="41" hidden="1" spans="1:5">
       <c r="A90" s="3" t="s">
         <v>331</v>
       </c>
@@ -21231,15 +21233,15 @@
       <c r="C90" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="D90" s="4" t="s">
         <v>732</v>
       </c>
-      <c r="E90" s="8">
+      <c r="E90" s="6">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="91" ht="41" spans="1:5">
+    <row r="91" ht="41" hidden="1" spans="1:5">
       <c r="A91" s="3" t="s">
         <v>335</v>
       </c>
@@ -21249,15 +21251,15 @@
       <c r="C91" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="D91" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="E91" s="8">
+      <c r="E91" s="6">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
-    <row r="92" ht="41" spans="1:5">
+    <row r="92" ht="41" hidden="1" spans="1:5">
       <c r="A92" s="3" t="s">
         <v>339</v>
       </c>
@@ -21267,15 +21269,15 @@
       <c r="C92" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D92" s="4" t="s">
         <v>749</v>
       </c>
-      <c r="E92" s="8">
+      <c r="E92" s="6">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="93" ht="41" spans="1:5">
+    <row r="93" ht="41" hidden="1" spans="1:5">
       <c r="A93" s="3" t="s">
         <v>342</v>
       </c>
@@ -21285,15 +21287,15 @@
       <c r="C93" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D93" s="4" t="s">
         <v>768</v>
       </c>
-      <c r="E93" s="8">
+      <c r="E93" s="6">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="94" ht="41" spans="1:5">
+    <row r="94" ht="41" hidden="1" spans="1:5">
       <c r="A94" s="3" t="s">
         <v>346</v>
       </c>
@@ -21303,15 +21305,15 @@
       <c r="C94" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="D94" s="4" t="s">
         <v>772</v>
       </c>
-      <c r="E94" s="8">
+      <c r="E94" s="6">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="95" ht="41" spans="1:5">
+    <row r="95" ht="41" hidden="1" spans="1:5">
       <c r="A95" s="3" t="s">
         <v>349</v>
       </c>
@@ -21321,15 +21323,15 @@
       <c r="C95" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="D95" s="6" t="s">
+      <c r="D95" s="4" t="s">
         <v>785</v>
       </c>
-      <c r="E95" s="8">
+      <c r="E95" s="6">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="96" ht="41" spans="1:5">
+    <row r="96" ht="41" hidden="1" spans="1:5">
       <c r="A96" s="3" t="s">
         <v>353</v>
       </c>
@@ -21339,15 +21341,15 @@
       <c r="C96" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D96" s="4" t="s">
         <v>808</v>
       </c>
-      <c r="E96" s="8">
+      <c r="E96" s="6">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="97" ht="41" spans="1:5">
+    <row r="97" ht="41" hidden="1" spans="1:5">
       <c r="A97" s="3" t="s">
         <v>356</v>
       </c>
@@ -21357,15 +21359,15 @@
       <c r="C97" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D97" s="4" t="s">
         <v>842</v>
       </c>
-      <c r="E97" s="8">
+      <c r="E97" s="6">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="98" ht="28" spans="1:5">
+    <row r="98" ht="28" hidden="1" spans="1:5">
       <c r="A98" s="3" t="s">
         <v>359</v>
       </c>
@@ -21375,15 +21377,15 @@
       <c r="C98" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="D98" s="4" t="s">
         <v>865</v>
       </c>
-      <c r="E98" s="8">
+      <c r="E98" s="6">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="99" ht="41" spans="1:5">
+    <row r="99" ht="41" hidden="1" spans="1:5">
       <c r="A99" s="3" t="s">
         <v>362</v>
       </c>
@@ -21393,15 +21395,15 @@
       <c r="C99" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="D99" s="6" t="s">
+      <c r="D99" s="4" t="s">
         <v>905</v>
       </c>
-      <c r="E99" s="8">
+      <c r="E99" s="6">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="100" ht="41" spans="1:5">
+    <row r="100" ht="41" hidden="1" spans="1:5">
       <c r="A100" s="3" t="s">
         <v>366</v>
       </c>
@@ -21411,15 +21413,15 @@
       <c r="C100" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="D100" s="4" t="s">
         <v>912</v>
       </c>
-      <c r="E100" s="8">
+      <c r="E100" s="6">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="101" ht="28" spans="1:5">
+    <row r="101" ht="28" hidden="1" spans="1:5">
       <c r="A101" s="3" t="s">
         <v>370</v>
       </c>
@@ -21429,15 +21431,15 @@
       <c r="C101" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="D101" s="4" t="s">
         <v>966</v>
       </c>
-      <c r="E101" s="8">
+      <c r="E101" s="6">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="102" ht="41" spans="1:5">
+    <row r="102" ht="41" hidden="1" spans="1:5">
       <c r="A102" s="3" t="s">
         <v>373</v>
       </c>
@@ -21447,15 +21449,15 @@
       <c r="C102" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="D102" s="4" t="s">
         <v>973</v>
       </c>
-      <c r="E102" s="8">
+      <c r="E102" s="6">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="103" ht="41" spans="1:5">
+    <row r="103" ht="41" hidden="1" spans="1:5">
       <c r="A103" s="3" t="s">
         <v>376</v>
       </c>
@@ -21465,15 +21467,15 @@
       <c r="C103" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="D103" s="6" t="s">
+      <c r="D103" s="4" t="s">
         <v>998</v>
       </c>
-      <c r="E103" s="8">
+      <c r="E103" s="6">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
-    <row r="104" ht="41" spans="1:5">
+    <row r="104" ht="41" hidden="1" spans="1:5">
       <c r="A104" s="3" t="s">
         <v>380</v>
       </c>
@@ -21483,15 +21485,15 @@
       <c r="C104" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="D104" s="4" t="s">
         <v>1011</v>
       </c>
-      <c r="E104" s="8">
+      <c r="E104" s="6">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="105" ht="41" spans="1:5">
+    <row r="105" ht="41" hidden="1" spans="1:5">
       <c r="A105" s="3" t="s">
         <v>384</v>
       </c>
@@ -21501,15 +21503,15 @@
       <c r="C105" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="D105" s="4" t="s">
         <v>1021</v>
       </c>
-      <c r="E105" s="8">
+      <c r="E105" s="6">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="106" ht="41" spans="1:5">
+    <row r="106" ht="41" hidden="1" spans="1:5">
       <c r="A106" s="3" t="s">
         <v>387</v>
       </c>
@@ -21519,15 +21521,15 @@
       <c r="C106" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D106" s="6" t="s">
+      <c r="D106" s="4" t="s">
         <v>1031</v>
       </c>
-      <c r="E106" s="8">
+      <c r="E106" s="6">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="107" ht="41" spans="1:5">
+    <row r="107" ht="41" hidden="1" spans="1:5">
       <c r="A107" s="3" t="s">
         <v>390</v>
       </c>
@@ -21537,15 +21539,15 @@
       <c r="C107" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="D107" s="6" t="s">
+      <c r="D107" s="4" t="s">
         <v>1035</v>
       </c>
-      <c r="E107" s="8">
+      <c r="E107" s="6">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="108" ht="28" spans="1:5">
+    <row r="108" ht="28" hidden="1" spans="1:5">
       <c r="A108" s="3" t="s">
         <v>394</v>
       </c>
@@ -21555,15 +21557,15 @@
       <c r="C108" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="D108" s="6" t="s">
+      <c r="D108" s="4" t="s">
         <v>1048</v>
       </c>
-      <c r="E108" s="8">
-        <f t="shared" ref="E108:E123" si="4">COUNTIF(C108:C667,D108)</f>
+      <c r="E108" s="6">
+        <f t="shared" ref="E108:E127" si="4">COUNTIF(C108:C667,D108)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="109" ht="41" spans="1:5">
+    <row r="109" ht="41" hidden="1" spans="1:5">
       <c r="A109" s="3" t="s">
         <v>398</v>
       </c>
@@ -21573,15 +21575,15 @@
       <c r="C109" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="D109" s="6" t="s">
+      <c r="D109" s="4" t="s">
         <v>1073</v>
       </c>
-      <c r="E109" s="8">
+      <c r="E109" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="110" ht="28" spans="1:5">
+    <row r="110" ht="28" hidden="1" spans="1:5">
       <c r="A110" s="3" t="s">
         <v>402</v>
       </c>
@@ -21591,15 +21593,15 @@
       <c r="C110" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D110" s="6" t="s">
+      <c r="D110" s="4" t="s">
         <v>1097</v>
       </c>
-      <c r="E110" s="8">
+      <c r="E110" s="6">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
-    <row r="111" ht="28" spans="1:5">
+    <row r="111" ht="28" hidden="1" spans="1:5">
       <c r="A111" s="3" t="s">
         <v>405</v>
       </c>
@@ -21609,15 +21611,15 @@
       <c r="C111" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D111" s="6" t="s">
+      <c r="D111" s="4" t="s">
         <v>1111</v>
       </c>
-      <c r="E111" s="8">
+      <c r="E111" s="6">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
-    <row r="112" ht="28" spans="1:5">
+    <row r="112" ht="28" hidden="1" spans="1:5">
       <c r="A112" s="3" t="s">
         <v>408</v>
       </c>
@@ -21627,15 +21629,15 @@
       <c r="C112" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="D112" s="6" t="s">
+      <c r="D112" s="4" t="s">
         <v>1175</v>
       </c>
-      <c r="E112" s="8">
+      <c r="E112" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="113" ht="28" spans="1:5">
+    <row r="113" ht="28" hidden="1" spans="1:5">
       <c r="A113" s="3" t="s">
         <v>412</v>
       </c>
@@ -21645,15 +21647,15 @@
       <c r="C113" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="D113" s="6" t="s">
+      <c r="D113" s="4" t="s">
         <v>1197</v>
       </c>
-      <c r="E113" s="8">
+      <c r="E113" s="6">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
-    <row r="114" ht="41" spans="1:5">
+    <row r="114" ht="41" hidden="1" spans="1:5">
       <c r="A114" s="3" t="s">
         <v>416</v>
       </c>
@@ -21663,15 +21665,15 @@
       <c r="C114" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="D114" s="6" t="s">
+      <c r="D114" s="4" t="s">
         <v>1207</v>
       </c>
-      <c r="E114" s="8">
+      <c r="E114" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="115" ht="28" spans="1:5">
+    <row r="115" ht="28" hidden="1" spans="1:5">
       <c r="A115" s="3" t="s">
         <v>420</v>
       </c>
@@ -21681,15 +21683,15 @@
       <c r="C115" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D115" s="6" t="s">
+      <c r="D115" s="4" t="s">
         <v>1230</v>
       </c>
-      <c r="E115" s="8">
+      <c r="E115" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="116" ht="28" spans="1:5">
+    <row r="116" ht="28" hidden="1" spans="1:5">
       <c r="A116" s="3" t="s">
         <v>423</v>
       </c>
@@ -21699,15 +21701,15 @@
       <c r="C116" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="D116" s="6" t="s">
+      <c r="D116" s="4" t="s">
         <v>1249</v>
       </c>
-      <c r="E116" s="8">
+      <c r="E116" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="117" ht="28" spans="1:5">
+    <row r="117" ht="28" hidden="1" spans="1:5">
       <c r="A117" s="3" t="s">
         <v>427</v>
       </c>
@@ -21717,15 +21719,15 @@
       <c r="C117" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D117" s="6" t="s">
+      <c r="D117" s="4" t="s">
         <v>1260</v>
       </c>
-      <c r="E117" s="8">
+      <c r="E117" s="6">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
-    <row r="118" ht="41" spans="1:5">
+    <row r="118" ht="41" hidden="1" spans="1:5">
       <c r="A118" s="3" t="s">
         <v>430</v>
       </c>
@@ -21735,15 +21737,15 @@
       <c r="C118" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D118" s="6" t="s">
+      <c r="D118" s="4" t="s">
         <v>1270</v>
       </c>
-      <c r="E118" s="8">
+      <c r="E118" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="119" ht="28" spans="1:5">
+    <row r="119" ht="28" hidden="1" spans="1:5">
       <c r="A119" s="3" t="s">
         <v>433</v>
       </c>
@@ -21753,15 +21755,15 @@
       <c r="C119" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="D119" s="6" t="s">
+      <c r="D119" s="4" t="s">
         <v>1304</v>
       </c>
-      <c r="E119" s="8">
+      <c r="E119" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="120" ht="28" spans="1:5">
+    <row r="120" ht="28" hidden="1" spans="1:5">
       <c r="A120" s="3" t="s">
         <v>437</v>
       </c>
@@ -21771,15 +21773,15 @@
       <c r="C120" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D120" s="6" t="s">
+      <c r="D120" s="4" t="s">
         <v>1353</v>
       </c>
-      <c r="E120" s="8">
+      <c r="E120" s="6">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
-    <row r="121" ht="41" spans="1:5">
+    <row r="121" ht="41" hidden="1" spans="1:5">
       <c r="A121" s="3" t="s">
         <v>440</v>
       </c>
@@ -21789,15 +21791,15 @@
       <c r="C121" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D121" s="6" t="s">
+      <c r="D121" s="4" t="s">
         <v>1398</v>
       </c>
-      <c r="E121" s="8">
+      <c r="E121" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="122" ht="28" spans="1:5">
+    <row r="122" ht="28" hidden="1" spans="1:5">
       <c r="A122" s="3" t="s">
         <v>443</v>
       </c>
@@ -21807,15 +21809,15 @@
       <c r="C122" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D122" s="6" t="s">
+      <c r="D122" s="4" t="s">
         <v>1420</v>
       </c>
-      <c r="E122" s="8">
+      <c r="E122" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="123" ht="28" spans="1:5">
+    <row r="123" ht="28" hidden="1" spans="1:5">
       <c r="A123" s="3" t="s">
         <v>446</v>
       </c>
@@ -21825,15 +21827,15 @@
       <c r="C123" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="D123" s="6" t="s">
+      <c r="D123" s="4" t="s">
         <v>1430</v>
       </c>
-      <c r="E123" s="8">
+      <c r="E123" s="6">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
-    <row r="124" ht="28" spans="1:5">
+    <row r="124" ht="28" hidden="1" spans="1:5">
       <c r="A124" s="3" t="s">
         <v>450</v>
       </c>
@@ -21843,15 +21845,15 @@
       <c r="C124" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D124" s="6" t="s">
+      <c r="D124" s="4" t="s">
         <v>1511</v>
       </c>
-      <c r="E124" s="8">
-        <f>COUNTIF(C124:C683,D124)</f>
+      <c r="E124" s="6">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="125" ht="41" spans="1:5">
+    <row r="125" ht="41" hidden="1" spans="1:5">
       <c r="A125" s="3" t="s">
         <v>453</v>
       </c>
@@ -21861,15 +21863,15 @@
       <c r="C125" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="D125" s="6" t="s">
+      <c r="D125" s="4" t="s">
         <v>1518</v>
       </c>
-      <c r="E125" s="8">
-        <f>COUNTIF(C125:C684,D125)</f>
+      <c r="E125" s="6">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="126" ht="28" spans="1:5">
+    <row r="126" ht="28" hidden="1" spans="1:5">
       <c r="A126" s="3" t="s">
         <v>456</v>
       </c>
@@ -21879,15 +21881,15 @@
       <c r="C126" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D126" s="6" t="s">
+      <c r="D126" s="4" t="s">
         <v>1544</v>
       </c>
-      <c r="E126" s="8">
-        <f>COUNTIF(C126:C685,D126)</f>
+      <c r="E126" s="6">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="127" ht="41" spans="1:5">
+    <row r="127" ht="41" hidden="1" spans="1:5">
       <c r="A127" s="3" t="s">
         <v>459</v>
       </c>
@@ -21897,15 +21899,15 @@
       <c r="C127" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D127" s="6" t="s">
+      <c r="D127" s="4" t="s">
         <v>1701</v>
       </c>
-      <c r="E127" s="8">
-        <f>COUNTIF(C127:C686,D127)</f>
+      <c r="E127" s="6">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" hidden="1" spans="1:3">
       <c r="A128" s="3" t="s">
         <v>462</v>
       </c>
@@ -21916,7 +21918,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="129" ht="41" spans="1:3">
+    <row r="129" hidden="1" spans="1:3">
       <c r="A129" s="3" t="s">
         <v>466</v>
       </c>
@@ -21927,7 +21929,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="130" ht="150" spans="1:3">
+    <row r="130" hidden="1" spans="1:3">
       <c r="A130" s="3" t="s">
         <v>469</v>
       </c>
@@ -21938,7 +21940,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="131" ht="68" spans="1:3">
+    <row r="131" hidden="1" spans="1:3">
       <c r="A131" s="3" t="s">
         <v>473</v>
       </c>
@@ -21949,7 +21951,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="132" ht="204" spans="1:3">
+    <row r="132" hidden="1" spans="1:3">
       <c r="A132" s="3" t="s">
         <v>476</v>
       </c>
@@ -21960,7 +21962,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="133" ht="82" spans="1:3">
+    <row r="133" hidden="1" spans="1:3">
       <c r="A133" s="3" t="s">
         <v>480</v>
       </c>
@@ -21971,7 +21973,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="134" ht="232" spans="1:3">
+    <row r="134" hidden="1" spans="1:3">
       <c r="A134" s="3" t="s">
         <v>483</v>
       </c>
@@ -21982,7 +21984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" ht="218" spans="1:3">
+    <row r="135" hidden="1" spans="1:3">
       <c r="A135" s="3" t="s">
         <v>486</v>
       </c>
@@ -21993,7 +21995,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="136" ht="177" spans="1:3">
+    <row r="136" hidden="1" spans="1:3">
       <c r="A136" s="3" t="s">
         <v>490</v>
       </c>
@@ -22004,7 +22006,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="137" ht="218" spans="1:3">
+    <row r="137" hidden="1" spans="1:3">
       <c r="A137" s="3" t="s">
         <v>493</v>
       </c>
@@ -22015,7 +22017,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="138" ht="41" spans="1:3">
+    <row r="138" hidden="1" spans="1:3">
       <c r="A138" s="3" t="s">
         <v>496</v>
       </c>
@@ -22026,7 +22028,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="139" ht="109" spans="1:3">
+    <row r="139" hidden="1" spans="1:3">
       <c r="A139" s="3" t="s">
         <v>499</v>
       </c>
@@ -22037,7 +22039,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="140" ht="96" spans="1:3">
+    <row r="140" hidden="1" spans="1:3">
       <c r="A140" s="3" t="s">
         <v>503</v>
       </c>
@@ -22048,7 +22050,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" hidden="1" spans="1:3">
       <c r="A141" s="3" t="s">
         <v>507</v>
       </c>
@@ -22059,7 +22061,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="142" ht="191" spans="1:3">
+    <row r="142" hidden="1" spans="1:3">
       <c r="A142" s="3" t="s">
         <v>510</v>
       </c>
@@ -22070,7 +22072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" ht="300" spans="1:3">
+    <row r="143" hidden="1" spans="1:3">
       <c r="A143" s="3" t="s">
         <v>513</v>
       </c>
@@ -22081,7 +22083,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" hidden="1" spans="1:3">
       <c r="A144" s="3" t="s">
         <v>517</v>
       </c>
@@ -22092,7 +22094,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" hidden="1" spans="1:3">
       <c r="A145" s="3" t="s">
         <v>520</v>
       </c>
@@ -22103,7 +22105,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" hidden="1" spans="1:3">
       <c r="A146" s="3" t="s">
         <v>524</v>
       </c>
@@ -22114,7 +22116,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="147" ht="55" spans="1:3">
+    <row r="147" hidden="1" spans="1:3">
       <c r="A147" s="3" t="s">
         <v>528</v>
       </c>
@@ -22125,7 +22127,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" hidden="1" spans="1:3">
       <c r="A148" s="3" t="s">
         <v>532</v>
       </c>
@@ -22136,7 +22138,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" hidden="1" spans="1:3">
       <c r="A149" s="3" t="s">
         <v>535</v>
       </c>
@@ -22147,7 +22149,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" hidden="1" spans="1:3">
       <c r="A150" s="3" t="s">
         <v>539</v>
       </c>
@@ -22158,7 +22160,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" hidden="1" spans="1:3">
       <c r="A151" s="3" t="s">
         <v>543</v>
       </c>
@@ -22169,7 +22171,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" hidden="1" spans="1:3">
       <c r="A152" s="3" t="s">
         <v>546</v>
       </c>
@@ -22180,7 +22182,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" hidden="1" spans="1:3">
       <c r="A153" s="3" t="s">
         <v>550</v>
       </c>
@@ -22191,7 +22193,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="154" ht="191" spans="1:3">
+    <row r="154" hidden="1" spans="1:3">
       <c r="A154" s="3" t="s">
         <v>554</v>
       </c>
@@ -22202,7 +22204,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="155" ht="55" spans="1:3">
+    <row r="155" hidden="1" spans="1:3">
       <c r="A155" s="3" t="s">
         <v>557</v>
       </c>
@@ -22213,7 +22215,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="156" ht="259" spans="1:3">
+    <row r="156" hidden="1" spans="1:3">
       <c r="A156" s="3" t="s">
         <v>560</v>
       </c>
@@ -22224,7 +22226,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" hidden="1" spans="1:3">
       <c r="A157" s="3" t="s">
         <v>563</v>
       </c>
@@ -22235,7 +22237,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="158" ht="82" spans="1:3">
+    <row r="158" hidden="1" spans="1:3">
       <c r="A158" s="3" t="s">
         <v>566</v>
       </c>
@@ -22246,7 +22248,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="159" ht="41" spans="1:3">
+    <row r="159" hidden="1" spans="1:3">
       <c r="A159" s="3" t="s">
         <v>570</v>
       </c>
@@ -22257,7 +22259,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" hidden="1" spans="1:3">
       <c r="A160" s="3" t="s">
         <v>573</v>
       </c>
@@ -22268,7 +22270,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="161" ht="259" spans="1:3">
+    <row r="161" hidden="1" spans="1:3">
       <c r="A161" s="3" t="s">
         <v>576</v>
       </c>
@@ -22279,7 +22281,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="162" ht="164" spans="1:3">
+    <row r="162" hidden="1" spans="1:3">
       <c r="A162" s="3" t="s">
         <v>579</v>
       </c>
@@ -22290,7 +22292,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="163" ht="55" spans="1:3">
+    <row r="163" hidden="1" spans="1:3">
       <c r="A163" s="3" t="s">
         <v>583</v>
       </c>
@@ -22301,7 +22303,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="164" ht="109" spans="1:3">
+    <row r="164" hidden="1" spans="1:3">
       <c r="A164" s="3" t="s">
         <v>586</v>
       </c>
@@ -22312,7 +22314,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="165" ht="409.5" spans="1:3">
+    <row r="165" hidden="1" spans="1:3">
       <c r="A165" s="3" t="s">
         <v>589</v>
       </c>
@@ -22323,7 +22325,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="166" ht="123" spans="1:3">
+    <row r="166" hidden="1" spans="1:3">
       <c r="A166" s="3" t="s">
         <v>593</v>
       </c>
@@ -22334,7 +22336,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="167" ht="123" spans="1:3">
+    <row r="167" hidden="1" spans="1:3">
       <c r="A167" s="3" t="s">
         <v>597</v>
       </c>
@@ -22345,7 +22347,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="168" ht="96" spans="1:3">
+    <row r="168" hidden="1" spans="1:3">
       <c r="A168" s="3" t="s">
         <v>600</v>
       </c>
@@ -22356,7 +22358,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" hidden="1" spans="1:3">
       <c r="A169" s="3" t="s">
         <v>603</v>
       </c>
@@ -22367,7 +22369,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" hidden="1" spans="1:3">
       <c r="A170" s="3" t="s">
         <v>606</v>
       </c>
@@ -22378,7 +22380,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" hidden="1" spans="1:3">
       <c r="A171" s="3" t="s">
         <v>610</v>
       </c>
@@ -22389,7 +22391,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" hidden="1" spans="1:3">
       <c r="A172" s="3" t="s">
         <v>614</v>
       </c>
@@ -22400,7 +22402,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" hidden="1" spans="1:3">
       <c r="A173" s="3" t="s">
         <v>618</v>
       </c>
@@ -22411,7 +22413,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" hidden="1" spans="1:3">
       <c r="A174" s="3" t="s">
         <v>622</v>
       </c>
@@ -22422,7 +22424,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" hidden="1" spans="1:3">
       <c r="A175" s="3" t="s">
         <v>625</v>
       </c>
@@ -22433,7 +22435,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" hidden="1" spans="1:3">
       <c r="A176" s="3" t="s">
         <v>629</v>
       </c>
@@ -22444,7 +22446,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" hidden="1" spans="1:3">
       <c r="A177" s="3" t="s">
         <v>633</v>
       </c>
@@ -22455,7 +22457,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="178" ht="245" spans="1:3">
+    <row r="178" hidden="1" spans="1:3">
       <c r="A178" s="3" t="s">
         <v>636</v>
       </c>
@@ -22466,7 +22468,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="179" ht="96" spans="1:3">
+    <row r="179" hidden="1" spans="1:3">
       <c r="A179" s="3" t="s">
         <v>639</v>
       </c>
@@ -22477,7 +22479,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="180" ht="82" spans="1:3">
+    <row r="180" hidden="1" spans="1:3">
       <c r="A180" s="3" t="s">
         <v>642</v>
       </c>
@@ -22488,7 +22490,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" hidden="1" spans="1:3">
       <c r="A181" s="3" t="s">
         <v>645</v>
       </c>
@@ -22499,7 +22501,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" hidden="1" spans="1:3">
       <c r="A182" s="3" t="s">
         <v>648</v>
       </c>
@@ -22510,7 +22512,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" hidden="1" spans="1:3">
       <c r="A183" s="3" t="s">
         <v>652</v>
       </c>
@@ -22521,7 +22523,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="184" ht="204" spans="1:3">
+    <row r="184" hidden="1" spans="1:3">
       <c r="A184" s="3" t="s">
         <v>655</v>
       </c>
@@ -22532,7 +22534,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" hidden="1" spans="1:3">
       <c r="A185" s="3" t="s">
         <v>658</v>
       </c>
@@ -22543,7 +22545,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="186" ht="232" spans="1:3">
+    <row r="186" hidden="1" spans="1:3">
       <c r="A186" s="3" t="s">
         <v>661</v>
       </c>
@@ -22554,7 +22556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" ht="150" spans="1:3">
+    <row r="187" hidden="1" spans="1:3">
       <c r="A187" s="3" t="s">
         <v>664</v>
       </c>
@@ -22565,7 +22567,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="188" ht="55" spans="1:3">
+    <row r="188" hidden="1" spans="1:3">
       <c r="A188" s="3" t="s">
         <v>668</v>
       </c>
@@ -22576,7 +22578,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="189" ht="68" spans="1:3">
+    <row r="189" hidden="1" spans="1:3">
       <c r="A189" s="3" t="s">
         <v>671</v>
       </c>
@@ -22587,7 +22589,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="190" ht="177" spans="1:3">
+    <row r="190" hidden="1" spans="1:3">
       <c r="A190" s="3" t="s">
         <v>674</v>
       </c>
@@ -22598,7 +22600,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" hidden="1" spans="1:3">
       <c r="A191" s="3" t="s">
         <v>677</v>
       </c>
@@ -22609,7 +22611,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="192" ht="68" spans="1:3">
+    <row r="192" hidden="1" spans="1:3">
       <c r="A192" s="3" t="s">
         <v>680</v>
       </c>
@@ -22620,7 +22622,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" hidden="1" spans="1:3">
       <c r="A193" s="3" t="s">
         <v>683</v>
       </c>
@@ -22631,7 +22633,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="194" ht="55" spans="1:3">
+    <row r="194" hidden="1" spans="1:3">
       <c r="A194" s="3" t="s">
         <v>687</v>
       </c>
@@ -22642,7 +22644,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="195" ht="123" spans="1:3">
+    <row r="195" hidden="1" spans="1:3">
       <c r="A195" s="3" t="s">
         <v>690</v>
       </c>
@@ -22653,7 +22655,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="196" ht="150" spans="1:3">
+    <row r="196" hidden="1" spans="1:3">
       <c r="A196" s="3" t="s">
         <v>694</v>
       </c>
@@ -22664,7 +22666,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="197" ht="82" spans="1:3">
+    <row r="197" hidden="1" spans="1:3">
       <c r="A197" s="3" t="s">
         <v>698</v>
       </c>
@@ -22675,7 +22677,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" hidden="1" spans="1:3">
       <c r="A198" s="3" t="s">
         <v>701</v>
       </c>
@@ -22686,7 +22688,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" hidden="1" spans="1:3">
       <c r="A199" s="3" t="s">
         <v>704</v>
       </c>
@@ -22697,7 +22699,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" hidden="1" spans="1:3">
       <c r="A200" s="3" t="s">
         <v>708</v>
       </c>
@@ -22708,7 +22710,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="201" ht="150" spans="1:3">
+    <row r="201" hidden="1" spans="1:3">
       <c r="A201" s="3" t="s">
         <v>711</v>
       </c>
@@ -22719,7 +22721,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="202" ht="68" spans="1:3">
+    <row r="202" hidden="1" spans="1:3">
       <c r="A202" s="3" t="s">
         <v>714</v>
       </c>
@@ -22730,7 +22732,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="203" ht="177" spans="1:3">
+    <row r="203" hidden="1" spans="1:3">
       <c r="A203" s="3" t="s">
         <v>718</v>
       </c>
@@ -22741,7 +22743,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="204" ht="123" spans="1:3">
+    <row r="204" hidden="1" spans="1:3">
       <c r="A204" s="3" t="s">
         <v>721</v>
       </c>
@@ -22752,7 +22754,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" hidden="1" spans="1:3">
       <c r="A205" s="3" t="s">
         <v>724</v>
       </c>
@@ -22763,7 +22765,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" hidden="1" spans="1:3">
       <c r="A206" s="3" t="s">
         <v>726</v>
       </c>
@@ -22774,7 +22776,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="207" ht="55" spans="1:3">
+    <row r="207" hidden="1" spans="1:3">
       <c r="A207" s="3" t="s">
         <v>730</v>
       </c>
@@ -22785,7 +22787,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="208" ht="272" spans="1:3">
+    <row r="208" hidden="1" spans="1:3">
       <c r="A208" s="3" t="s">
         <v>734</v>
       </c>
@@ -22796,7 +22798,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" hidden="1" spans="1:3">
       <c r="A209" s="3" t="s">
         <v>738</v>
       </c>
@@ -22807,7 +22809,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="210" ht="82" spans="1:3">
+    <row r="210" hidden="1" spans="1:3">
       <c r="A210" s="3" t="s">
         <v>741</v>
       </c>
@@ -22818,7 +22820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="211" ht="55" spans="1:3">
+    <row r="211" hidden="1" spans="1:3">
       <c r="A211" s="3" t="s">
         <v>744</v>
       </c>
@@ -22829,7 +22831,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="212" ht="340" spans="1:3">
+    <row r="212" hidden="1" spans="1:3">
       <c r="A212" s="3" t="s">
         <v>747</v>
       </c>
@@ -22840,7 +22842,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" hidden="1" spans="1:3">
       <c r="A213" s="3" t="s">
         <v>751</v>
       </c>
@@ -22851,7 +22853,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="214" ht="164" spans="1:3">
+    <row r="214" hidden="1" spans="1:3">
       <c r="A214" s="3" t="s">
         <v>754</v>
       </c>
@@ -22862,7 +22864,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="215" ht="96" spans="1:3">
+    <row r="215" hidden="1" spans="1:3">
       <c r="A215" s="3" t="s">
         <v>757</v>
       </c>
@@ -22873,7 +22875,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="216" ht="109" spans="1:3">
+    <row r="216" hidden="1" spans="1:3">
       <c r="A216" s="3" t="s">
         <v>760</v>
       </c>
@@ -22884,7 +22886,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" hidden="1" spans="1:3">
       <c r="A217" s="3" t="s">
         <v>763</v>
       </c>
@@ -22895,7 +22897,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="218" ht="109" spans="1:3">
+    <row r="218" hidden="1" spans="1:3">
       <c r="A218" s="3" t="s">
         <v>766</v>
       </c>
@@ -22906,7 +22908,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="219" ht="55" spans="1:3">
+    <row r="219" hidden="1" spans="1:3">
       <c r="A219" s="3" t="s">
         <v>770</v>
       </c>
@@ -22917,7 +22919,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="220" ht="177" spans="1:3">
+    <row r="220" hidden="1" spans="1:3">
       <c r="A220" s="3" t="s">
         <v>774</v>
       </c>
@@ -22928,7 +22930,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" hidden="1" spans="1:3">
       <c r="A221" s="3" t="s">
         <v>777</v>
       </c>
@@ -22939,7 +22941,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="222" ht="177" spans="1:3">
+    <row r="222" hidden="1" spans="1:3">
       <c r="A222" s="3" t="s">
         <v>780</v>
       </c>
@@ -22950,7 +22952,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="223" ht="55" spans="1:3">
+    <row r="223" hidden="1" spans="1:3">
       <c r="A223" s="3" t="s">
         <v>783</v>
       </c>
@@ -22961,7 +22963,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="224" ht="96" spans="1:3">
+    <row r="224" hidden="1" spans="1:3">
       <c r="A224" s="3" t="s">
         <v>787</v>
       </c>
@@ -22972,7 +22974,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" hidden="1" spans="1:3">
       <c r="A225" s="3" t="s">
         <v>790</v>
       </c>
@@ -22983,7 +22985,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" hidden="1" spans="1:3">
       <c r="A226" s="3" t="s">
         <v>793</v>
       </c>
@@ -22994,7 +22996,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" hidden="1" spans="1:3">
       <c r="A227" s="3" t="s">
         <v>796</v>
       </c>
@@ -23005,7 +23007,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" hidden="1" spans="1:3">
       <c r="A228" s="3" t="s">
         <v>800</v>
       </c>
@@ -23016,7 +23018,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="229" ht="409.5" spans="1:3">
+    <row r="229" hidden="1" spans="1:3">
       <c r="A229" s="3" t="s">
         <v>803</v>
       </c>
@@ -23027,7 +23029,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="230" ht="68" spans="1:3">
+    <row r="230" hidden="1" spans="1:3">
       <c r="A230" s="3" t="s">
         <v>806</v>
       </c>
@@ -23038,7 +23040,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="231" ht="109" spans="1:3">
+    <row r="231" hidden="1" spans="1:3">
       <c r="A231" s="3" t="s">
         <v>810</v>
       </c>
@@ -23049,7 +23051,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="232" ht="123" spans="1:3">
+    <row r="232" hidden="1" spans="1:3">
       <c r="A232" s="3" t="s">
         <v>813</v>
       </c>
@@ -23060,7 +23062,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="233" ht="68" spans="1:3">
+    <row r="233" hidden="1" spans="1:3">
       <c r="A233" s="3" t="s">
         <v>816</v>
       </c>
@@ -23071,7 +23073,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" hidden="1" spans="1:3">
       <c r="A234" s="3" t="s">
         <v>819</v>
       </c>
@@ -23082,7 +23084,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" hidden="1" spans="1:3">
       <c r="A235" s="3" t="s">
         <v>821</v>
       </c>
@@ -23093,7 +23095,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" hidden="1" spans="1:3">
       <c r="A236" s="3" t="s">
         <v>825</v>
       </c>
@@ -23104,7 +23106,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="237" ht="245" spans="1:3">
+    <row r="237" hidden="1" spans="1:3">
       <c r="A237" s="3" t="s">
         <v>828</v>
       </c>
@@ -23115,7 +23117,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" ht="82" spans="1:3">
+    <row r="238" hidden="1" spans="1:3">
       <c r="A238" s="3" t="s">
         <v>831</v>
       </c>
@@ -23126,7 +23128,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="239" ht="68" spans="1:3">
+    <row r="239" hidden="1" spans="1:3">
       <c r="A239" s="3" t="s">
         <v>834</v>
       </c>
@@ -23137,7 +23139,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="240" ht="150" spans="1:3">
+    <row r="240" hidden="1" spans="1:3">
       <c r="A240" s="3" t="s">
         <v>837</v>
       </c>
@@ -23148,7 +23150,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="241" ht="96" spans="1:3">
+    <row r="241" hidden="1" spans="1:3">
       <c r="A241" s="3" t="s">
         <v>840</v>
       </c>
@@ -23159,7 +23161,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="242" ht="232" spans="1:3">
+    <row r="242" hidden="1" spans="1:3">
       <c r="A242" s="3" t="s">
         <v>844</v>
       </c>
@@ -23170,7 +23172,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" hidden="1" spans="1:3">
       <c r="A243" s="3" t="s">
         <v>847</v>
       </c>
@@ -23181,7 +23183,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" hidden="1" spans="1:3">
       <c r="A244" s="3" t="s">
         <v>850</v>
       </c>
@@ -23192,7 +23194,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" hidden="1" spans="1:3">
       <c r="A245" s="3" t="s">
         <v>854</v>
       </c>
@@ -23203,7 +23205,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="246" ht="123" spans="1:3">
+    <row r="246" hidden="1" spans="1:3">
       <c r="A246" s="3" t="s">
         <v>857</v>
       </c>
@@ -23214,7 +23216,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="247" ht="164" spans="1:3">
+    <row r="247" hidden="1" spans="1:3">
       <c r="A247" s="3" t="s">
         <v>860</v>
       </c>
@@ -23225,7 +23227,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" hidden="1" spans="1:3">
       <c r="A248" s="3" t="s">
         <v>863</v>
       </c>
@@ -23236,7 +23238,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="249" ht="123" spans="1:3">
+    <row r="249" hidden="1" spans="1:3">
       <c r="A249" s="3" t="s">
         <v>866</v>
       </c>
@@ -23247,7 +23249,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="250" ht="272" spans="1:3">
+    <row r="250" hidden="1" spans="1:3">
       <c r="A250" s="3" t="s">
         <v>869</v>
       </c>
@@ -23258,7 +23260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251" ht="272" spans="1:3">
+    <row r="251" hidden="1" spans="1:3">
       <c r="A251" s="3" t="s">
         <v>872</v>
       </c>
@@ -23269,7 +23271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" hidden="1" spans="1:3">
       <c r="A252" s="3" t="s">
         <v>875</v>
       </c>
@@ -23280,7 +23282,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" hidden="1" spans="1:3">
       <c r="A253" s="3" t="s">
         <v>877</v>
       </c>
@@ -23291,7 +23293,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="254" ht="96" spans="1:3">
+    <row r="254" hidden="1" spans="1:3">
       <c r="A254" s="3" t="s">
         <v>880</v>
       </c>
@@ -23302,7 +23304,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" hidden="1" spans="1:3">
       <c r="A255" s="3" t="s">
         <v>883</v>
       </c>
@@ -23313,7 +23315,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" hidden="1" spans="1:3">
       <c r="A256" s="3" t="s">
         <v>886</v>
       </c>
@@ -23324,7 +23326,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" hidden="1" spans="1:3">
       <c r="A257" s="3" t="s">
         <v>890</v>
       </c>
@@ -23335,7 +23337,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="258" ht="150" spans="1:3">
+    <row r="258" hidden="1" spans="1:3">
       <c r="A258" s="3" t="s">
         <v>893</v>
       </c>
@@ -23346,7 +23348,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" hidden="1" spans="1:3">
       <c r="A259" s="3" t="s">
         <v>896</v>
       </c>
@@ -23357,7 +23359,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" hidden="1" spans="1:3">
       <c r="A260" s="3" t="s">
         <v>899</v>
       </c>
@@ -23368,7 +23370,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" hidden="1" spans="1:3">
       <c r="A261" s="3" t="s">
         <v>903</v>
       </c>
@@ -23379,7 +23381,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="262" ht="204" spans="1:3">
+    <row r="262" hidden="1" spans="1:3">
       <c r="A262" s="3" t="s">
         <v>907</v>
       </c>
@@ -23390,7 +23392,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="263" ht="55" spans="1:3">
+    <row r="263" hidden="1" spans="1:3">
       <c r="A263" s="3" t="s">
         <v>910</v>
       </c>
@@ -23401,7 +23403,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" hidden="1" spans="1:3">
       <c r="A264" s="3" t="s">
         <v>914</v>
       </c>
@@ -23412,7 +23414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" hidden="1" spans="1:3">
       <c r="A265" s="3" t="s">
         <v>917</v>
       </c>
@@ -23423,7 +23425,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" hidden="1" spans="1:3">
       <c r="A266" s="3" t="s">
         <v>921</v>
       </c>
@@ -23434,7 +23436,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" hidden="1" spans="1:3">
       <c r="A267" s="3" t="s">
         <v>924</v>
       </c>
@@ -23445,7 +23447,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="268" ht="55" spans="1:3">
+    <row r="268" hidden="1" spans="1:3">
       <c r="A268" s="3" t="s">
         <v>927</v>
       </c>
@@ -23456,7 +23458,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" hidden="1" spans="1:3">
       <c r="A269" s="3" t="s">
         <v>930</v>
       </c>
@@ -23467,7 +23469,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" hidden="1" spans="1:3">
       <c r="A270" s="3" t="s">
         <v>933</v>
       </c>
@@ -23478,7 +23480,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" hidden="1" spans="1:3">
       <c r="A271" s="3" t="s">
         <v>937</v>
       </c>
@@ -23489,7 +23491,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" hidden="1" spans="1:3">
       <c r="A272" s="3" t="s">
         <v>940</v>
       </c>
@@ -23500,7 +23502,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" hidden="1" spans="1:3">
       <c r="A273" s="3" t="s">
         <v>944</v>
       </c>
@@ -23511,7 +23513,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" hidden="1" spans="1:3">
       <c r="A274" s="3" t="s">
         <v>948</v>
       </c>
@@ -23522,7 +23524,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="275" ht="109" spans="1:3">
+    <row r="275" hidden="1" spans="1:3">
       <c r="A275" s="3" t="s">
         <v>951</v>
       </c>
@@ -23533,7 +23535,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" hidden="1" spans="1:3">
       <c r="A276" s="3" t="s">
         <v>954</v>
       </c>
@@ -23544,7 +23546,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" hidden="1" spans="1:3">
       <c r="A277" s="3" t="s">
         <v>957</v>
       </c>
@@ -23555,7 +23557,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" hidden="1" spans="1:3">
       <c r="A278" s="3" t="s">
         <v>961</v>
       </c>
@@ -23566,7 +23568,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="279" ht="82" spans="1:3">
+    <row r="279" hidden="1" spans="1:3">
       <c r="A279" s="3" t="s">
         <v>964</v>
       </c>
@@ -23577,7 +23579,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="280" ht="164" spans="1:3">
+    <row r="280" hidden="1" spans="1:3">
       <c r="A280" s="3" t="s">
         <v>968</v>
       </c>
@@ -23588,7 +23590,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="281" ht="164" spans="1:3">
+    <row r="281" hidden="1" spans="1:3">
       <c r="A281" s="3" t="s">
         <v>971</v>
       </c>
@@ -23599,7 +23601,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" hidden="1" spans="1:3">
       <c r="A282" s="3" t="s">
         <v>975</v>
       </c>
@@ -23610,7 +23612,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="283" ht="55" spans="1:3">
+    <row r="283" hidden="1" spans="1:3">
       <c r="A283" s="3" t="s">
         <v>978</v>
       </c>
@@ -23621,7 +23623,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" hidden="1" spans="1:3">
       <c r="A284" s="3" t="s">
         <v>981</v>
       </c>
@@ -23632,7 +23634,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" hidden="1" spans="1:3">
       <c r="A285" s="3" t="s">
         <v>984</v>
       </c>
@@ -23643,7 +23645,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" hidden="1" spans="1:3">
       <c r="A286" s="3" t="s">
         <v>988</v>
       </c>
@@ -23654,7 +23656,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="287" ht="55" spans="1:3">
+    <row r="287" hidden="1" spans="1:3">
       <c r="A287" s="3" t="s">
         <v>990</v>
       </c>
@@ -23665,7 +23667,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="288" ht="55" spans="1:3">
+    <row r="288" hidden="1" spans="1:3">
       <c r="A288" s="3" t="s">
         <v>993</v>
       </c>
@@ -23676,7 +23678,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" hidden="1" spans="1:3">
       <c r="A289" s="3" t="s">
         <v>996</v>
       </c>
@@ -23687,7 +23689,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="290" ht="204" spans="1:3">
+    <row r="290" hidden="1" spans="1:3">
       <c r="A290" s="3" t="s">
         <v>1000</v>
       </c>
@@ -23698,7 +23700,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="291" ht="109" spans="1:3">
+    <row r="291" hidden="1" spans="1:3">
       <c r="A291" s="3" t="s">
         <v>1003</v>
       </c>
@@ -23709,7 +23711,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="292" ht="136" spans="1:3">
+    <row r="292" hidden="1" spans="1:3">
       <c r="A292" s="3" t="s">
         <v>1006</v>
       </c>
@@ -23720,7 +23722,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="293" ht="136" spans="1:3">
+    <row r="293" hidden="1" spans="1:3">
       <c r="A293" s="3" t="s">
         <v>1009</v>
       </c>
@@ -23731,7 +23733,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="294" ht="82" spans="1:3">
+    <row r="294" hidden="1" spans="1:3">
       <c r="A294" s="3" t="s">
         <v>1013</v>
       </c>
@@ -23742,7 +23744,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="295" ht="82" spans="1:3">
+    <row r="295" hidden="1" spans="1:3">
       <c r="A295" s="3" t="s">
         <v>1016</v>
       </c>
@@ -23753,7 +23755,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="296" ht="177" spans="1:3">
+    <row r="296" hidden="1" spans="1:3">
       <c r="A296" s="3" t="s">
         <v>1019</v>
       </c>
@@ -23764,7 +23766,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="297" ht="41" spans="1:3">
+    <row r="297" hidden="1" spans="1:3">
       <c r="A297" s="3" t="s">
         <v>1023</v>
       </c>
@@ -23775,7 +23777,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="298" ht="259" spans="1:3">
+    <row r="298" hidden="1" spans="1:3">
       <c r="A298" s="3" t="s">
         <v>1026</v>
       </c>
@@ -23786,7 +23788,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="299" ht="82" spans="1:3">
+    <row r="299" hidden="1" spans="1:3">
       <c r="A299" s="3" t="s">
         <v>1029</v>
       </c>
@@ -23797,7 +23799,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" hidden="1" spans="1:3">
       <c r="A300" s="3" t="s">
         <v>1033</v>
       </c>
@@ -23808,7 +23810,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" hidden="1" spans="1:3">
       <c r="A301" s="3" t="s">
         <v>1037</v>
       </c>
@@ -23819,7 +23821,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="302" ht="96" spans="1:3">
+    <row r="302" hidden="1" spans="1:3">
       <c r="A302" s="3" t="s">
         <v>1040</v>
       </c>
@@ -23830,7 +23832,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="303" ht="164" spans="1:3">
+    <row r="303" hidden="1" spans="1:3">
       <c r="A303" s="3" t="s">
         <v>1043</v>
       </c>
@@ -23841,7 +23843,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="304" ht="136" spans="1:3">
+    <row r="304" hidden="1" spans="1:3">
       <c r="A304" s="3" t="s">
         <v>1046</v>
       </c>
@@ -23852,7 +23854,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="305" ht="82" spans="1:3">
+    <row r="305" hidden="1" spans="1:3">
       <c r="A305" s="3" t="s">
         <v>1050</v>
       </c>
@@ -23863,7 +23865,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="306" ht="191" spans="1:3">
+    <row r="306" hidden="1" spans="1:3">
       <c r="A306" s="3" t="s">
         <v>1053</v>
       </c>
@@ -23874,7 +23876,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="307" ht="286" spans="1:3">
+    <row r="307" hidden="1" spans="1:3">
       <c r="A307" s="3" t="s">
         <v>1056</v>
       </c>
@@ -23885,7 +23887,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="308" spans="1:3">
+    <row r="308" hidden="1" spans="1:3">
       <c r="A308" s="3" t="s">
         <v>1059</v>
       </c>
@@ -23896,7 +23898,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="309" ht="177" spans="1:3">
+    <row r="309" hidden="1" spans="1:3">
       <c r="A309" s="3" t="s">
         <v>1062</v>
       </c>
@@ -23907,7 +23909,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="310" ht="164" spans="1:3">
+    <row r="310" hidden="1" spans="1:3">
       <c r="A310" s="3" t="s">
         <v>1065</v>
       </c>
@@ -23918,7 +23920,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="311" ht="259" spans="1:3">
+    <row r="311" hidden="1" spans="1:3">
       <c r="A311" s="3" t="s">
         <v>1068</v>
       </c>
@@ -23929,7 +23931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" hidden="1" spans="1:3">
       <c r="A312" s="3" t="s">
         <v>1071</v>
       </c>
@@ -23940,7 +23942,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" hidden="1" spans="1:3">
       <c r="A313" s="3" t="s">
         <v>1074</v>
       </c>
@@ -23951,7 +23953,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="314" ht="96" spans="1:3">
+    <row r="314" hidden="1" spans="1:3">
       <c r="A314" s="3" t="s">
         <v>1077</v>
       </c>
@@ -23962,7 +23964,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="315" ht="109" spans="1:3">
+    <row r="315" hidden="1" spans="1:3">
       <c r="A315" s="3" t="s">
         <v>1080</v>
       </c>
@@ -23973,7 +23975,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="316" ht="136" spans="1:3">
+    <row r="316" hidden="1" spans="1:3">
       <c r="A316" s="3" t="s">
         <v>1083</v>
       </c>
@@ -23984,7 +23986,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" hidden="1" spans="1:3">
       <c r="A317" s="3" t="s">
         <v>1086</v>
       </c>
@@ -23995,7 +23997,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="318" ht="41" spans="1:3">
+    <row r="318" hidden="1" spans="1:3">
       <c r="A318" s="3" t="s">
         <v>1089</v>
       </c>
@@ -24006,7 +24008,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="319" ht="123" spans="1:3">
+    <row r="319" hidden="1" spans="1:3">
       <c r="A319" s="3" t="s">
         <v>1092</v>
       </c>
@@ -24017,7 +24019,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="320" ht="164" spans="1:3">
+    <row r="320" hidden="1" spans="1:3">
       <c r="A320" s="3" t="s">
         <v>1095</v>
       </c>
@@ -24028,7 +24030,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" hidden="1" spans="1:3">
       <c r="A321" s="3" t="s">
         <v>1099</v>
       </c>
@@ -24039,7 +24041,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" hidden="1" spans="1:3">
       <c r="A322" s="3" t="s">
         <v>1102</v>
       </c>
@@ -24050,7 +24052,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" hidden="1" spans="1:3">
       <c r="A323" s="3" t="s">
         <v>1106</v>
       </c>
@@ -24061,7 +24063,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="324" ht="96" spans="1:3">
+    <row r="324" hidden="1" spans="1:3">
       <c r="A324" s="3" t="s">
         <v>1109</v>
       </c>
@@ -24072,7 +24074,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="325" ht="150" spans="1:3">
+    <row r="325" hidden="1" spans="1:3">
       <c r="A325" s="3" t="s">
         <v>1113</v>
       </c>
@@ -24083,7 +24085,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="326" ht="82" spans="1:3">
+    <row r="326" hidden="1" spans="1:3">
       <c r="A326" s="3" t="s">
         <v>1116</v>
       </c>
@@ -24094,7 +24096,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="327" ht="136" spans="1:3">
+    <row r="327" hidden="1" spans="1:3">
       <c r="A327" s="3" t="s">
         <v>1119</v>
       </c>
@@ -24105,7 +24107,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="328" ht="150" spans="1:3">
+    <row r="328" hidden="1" spans="1:3">
       <c r="A328" s="3" t="s">
         <v>1122</v>
       </c>
@@ -24116,7 +24118,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" hidden="1" spans="1:3">
       <c r="A329" s="3" t="s">
         <v>1125</v>
       </c>
@@ -24127,7 +24129,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="330" ht="82" spans="1:3">
+    <row r="330" hidden="1" spans="1:3">
       <c r="A330" s="3" t="s">
         <v>1128</v>
       </c>
@@ -24138,7 +24140,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="331" ht="177" spans="1:3">
+    <row r="331" hidden="1" spans="1:3">
       <c r="A331" s="3" t="s">
         <v>1131</v>
       </c>
@@ -24149,7 +24151,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="332" ht="109" spans="1:3">
+    <row r="332" hidden="1" spans="1:3">
       <c r="A332" s="3" t="s">
         <v>1134</v>
       </c>
@@ -24160,7 +24162,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="333" ht="96" spans="1:3">
+    <row r="333" hidden="1" spans="1:3">
       <c r="A333" s="3" t="s">
         <v>1137</v>
       </c>
@@ -24171,7 +24173,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="334" ht="177" spans="1:3">
+    <row r="334" hidden="1" spans="1:3">
       <c r="A334" s="3" t="s">
         <v>1140</v>
       </c>
@@ -24182,7 +24184,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="335" ht="96" spans="1:3">
+    <row r="335" hidden="1" spans="1:3">
       <c r="A335" s="3" t="s">
         <v>1143</v>
       </c>
@@ -24193,7 +24195,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="336" ht="150" spans="1:3">
+    <row r="336" hidden="1" spans="1:3">
       <c r="A336" s="3" t="s">
         <v>1146</v>
       </c>
@@ -24204,7 +24206,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="337" ht="55" spans="1:3">
+    <row r="337" hidden="1" spans="1:3">
       <c r="A337" s="3" t="s">
         <v>1149</v>
       </c>
@@ -24215,7 +24217,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" hidden="1" spans="1:3">
       <c r="A338" s="3" t="s">
         <v>1151</v>
       </c>
@@ -24226,7 +24228,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" hidden="1" spans="1:3">
       <c r="A339" s="3" t="s">
         <v>1154</v>
       </c>
@@ -24237,7 +24239,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" hidden="1" spans="1:3">
       <c r="A340" s="3" t="s">
         <v>1158</v>
       </c>
@@ -24248,7 +24250,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="341" ht="55" spans="1:3">
+    <row r="341" hidden="1" spans="1:3">
       <c r="A341" s="3" t="s">
         <v>1161</v>
       </c>
@@ -24259,7 +24261,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="342" ht="245" spans="1:3">
+    <row r="342" hidden="1" spans="1:3">
       <c r="A342" s="3" t="s">
         <v>1164</v>
       </c>
@@ -24270,7 +24272,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="343" ht="68" spans="1:3">
+    <row r="343" hidden="1" spans="1:3">
       <c r="A343" s="3" t="s">
         <v>1167</v>
       </c>
@@ -24281,7 +24283,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="344" ht="150" spans="1:3">
+    <row r="344" hidden="1" spans="1:3">
       <c r="A344" s="3" t="s">
         <v>1170</v>
       </c>
@@ -24292,7 +24294,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="345" ht="55" spans="1:3">
+    <row r="345" hidden="1" spans="1:3">
       <c r="A345" s="3" t="s">
         <v>1173</v>
       </c>
@@ -24303,7 +24305,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="346" ht="218" spans="1:3">
+    <row r="346" hidden="1" spans="1:3">
       <c r="A346" s="3" t="s">
         <v>1177</v>
       </c>
@@ -24314,7 +24316,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="347" ht="68" spans="1:3">
+    <row r="347" hidden="1" spans="1:3">
       <c r="A347" s="3" t="s">
         <v>1180</v>
       </c>
@@ -24325,7 +24327,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="348" ht="123" spans="1:3">
+    <row r="348" hidden="1" spans="1:3">
       <c r="A348" s="3" t="s">
         <v>1183</v>
       </c>
@@ -24336,7 +24338,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="349" ht="68" spans="1:3">
+    <row r="349" hidden="1" spans="1:3">
       <c r="A349" s="3" t="s">
         <v>1186</v>
       </c>
@@ -24347,7 +24349,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="350" ht="300" spans="1:3">
+    <row r="350" hidden="1" spans="1:3">
       <c r="A350" s="3" t="s">
         <v>1189</v>
       </c>
@@ -24358,7 +24360,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="351" ht="164" spans="1:3">
+    <row r="351" hidden="1" spans="1:3">
       <c r="A351" s="3" t="s">
         <v>1192</v>
       </c>
@@ -24369,7 +24371,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="352" ht="96" spans="1:3">
+    <row r="352" hidden="1" spans="1:3">
       <c r="A352" s="3" t="s">
         <v>1195</v>
       </c>
@@ -24380,7 +24382,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" hidden="1" spans="1:3">
       <c r="A353" s="3" t="s">
         <v>1199</v>
       </c>
@@ -24391,7 +24393,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="354" ht="259" spans="1:3">
+    <row r="354" hidden="1" spans="1:3">
       <c r="A354" s="3" t="s">
         <v>1202</v>
       </c>
@@ -24402,7 +24404,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" hidden="1" spans="1:3">
       <c r="A355" s="3" t="s">
         <v>1205</v>
       </c>
@@ -24413,7 +24415,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" hidden="1" spans="1:3">
       <c r="A356" s="3" t="s">
         <v>1209</v>
       </c>
@@ -24424,7 +24426,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" hidden="1" spans="1:3">
       <c r="A357" s="3" t="s">
         <v>1212</v>
       </c>
@@ -24435,7 +24437,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" hidden="1" spans="1:3">
       <c r="A358" s="3" t="s">
         <v>1216</v>
       </c>
@@ -24446,7 +24448,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="359" ht="177" spans="1:3">
+    <row r="359" hidden="1" spans="1:3">
       <c r="A359" s="3" t="s">
         <v>1219</v>
       </c>
@@ -24457,7 +24459,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="360" ht="55" spans="1:3">
+    <row r="360" hidden="1" spans="1:3">
       <c r="A360" s="3" t="s">
         <v>1222</v>
       </c>
@@ -24468,7 +24470,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="361" ht="41" spans="1:3">
+    <row r="361" hidden="1" spans="1:3">
       <c r="A361" s="3" t="s">
         <v>1225</v>
       </c>
@@ -24479,7 +24481,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" hidden="1" spans="1:3">
       <c r="A362" s="3" t="s">
         <v>1228</v>
       </c>
@@ -24490,7 +24492,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="363" ht="68" spans="1:3">
+    <row r="363" hidden="1" spans="1:3">
       <c r="A363" s="3" t="s">
         <v>1232</v>
       </c>
@@ -24501,7 +24503,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="364" ht="55" spans="1:3">
+    <row r="364" hidden="1" spans="1:3">
       <c r="A364" s="3" t="s">
         <v>1235</v>
       </c>
@@ -24512,7 +24514,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="365" ht="123" spans="1:3">
+    <row r="365" hidden="1" spans="1:3">
       <c r="A365" s="3" t="s">
         <v>1238</v>
       </c>
@@ -24523,7 +24525,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="366" ht="204" spans="1:3">
+    <row r="366" hidden="1" spans="1:3">
       <c r="A366" s="3" t="s">
         <v>1241</v>
       </c>
@@ -24534,7 +24536,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="367" ht="232" spans="1:3">
+    <row r="367" hidden="1" spans="1:3">
       <c r="A367" s="3" t="s">
         <v>1244</v>
       </c>
@@ -24545,7 +24547,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="368" ht="245" spans="1:3">
+    <row r="368" hidden="1" spans="1:3">
       <c r="A368" s="3" t="s">
         <v>1247</v>
       </c>
@@ -24556,7 +24558,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" hidden="1" spans="1:3">
       <c r="A369" s="3" t="s">
         <v>1251</v>
       </c>
@@ -24567,7 +24569,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" hidden="1" spans="1:3">
       <c r="A370" s="3" t="s">
         <v>1254</v>
       </c>
@@ -24578,7 +24580,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" hidden="1" spans="1:3">
       <c r="A371" s="3" t="s">
         <v>1258</v>
       </c>
@@ -24589,7 +24591,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" hidden="1" spans="1:3">
       <c r="A372" s="3" t="s">
         <v>1262</v>
       </c>
@@ -24600,7 +24602,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="373" ht="96" spans="1:3">
+    <row r="373" hidden="1" spans="1:3">
       <c r="A373" s="3" t="s">
         <v>1265</v>
       </c>
@@ -24611,7 +24613,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="374" ht="96" spans="1:3">
+    <row r="374" hidden="1" spans="1:3">
       <c r="A374" s="3" t="s">
         <v>1268</v>
       </c>
@@ -24622,7 +24624,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" hidden="1" spans="1:3">
       <c r="A375" s="3" t="s">
         <v>1272</v>
       </c>
@@ -24633,7 +24635,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="376" ht="232" spans="1:3">
+    <row r="376" hidden="1" spans="1:3">
       <c r="A376" s="3" t="s">
         <v>1275</v>
       </c>
@@ -24644,7 +24646,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="377" ht="123" spans="1:3">
+    <row r="377" hidden="1" spans="1:3">
       <c r="A377" s="3" t="s">
         <v>1278</v>
       </c>
@@ -24655,7 +24657,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="378" ht="68" spans="1:3">
+    <row r="378" hidden="1" spans="1:3">
       <c r="A378" s="3" t="s">
         <v>1281</v>
       </c>
@@ -24666,7 +24668,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="379" ht="109" spans="1:3">
+    <row r="379" hidden="1" spans="1:3">
       <c r="A379" s="3" t="s">
         <v>1284</v>
       </c>
@@ -24677,7 +24679,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
+    <row r="380" hidden="1" spans="1:3">
       <c r="A380" s="3" t="s">
         <v>1287</v>
       </c>
@@ -24688,7 +24690,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="381" ht="109" spans="1:3">
+    <row r="381" hidden="1" spans="1:3">
       <c r="A381" s="3" t="s">
         <v>1290</v>
       </c>
@@ -24699,7 +24701,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="382" ht="164" spans="1:3">
+    <row r="382" hidden="1" spans="1:3">
       <c r="A382" s="3" t="s">
         <v>1293</v>
       </c>
@@ -24710,7 +24712,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
+    <row r="383" hidden="1" spans="1:3">
       <c r="A383" s="3" t="s">
         <v>1296</v>
       </c>
@@ -24721,7 +24723,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="384" ht="218" spans="1:3">
+    <row r="384" hidden="1" spans="1:3">
       <c r="A384" s="3" t="s">
         <v>1299</v>
       </c>
@@ -24732,7 +24734,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="385" spans="1:3">
+    <row r="385" hidden="1" spans="1:3">
       <c r="A385" s="3" t="s">
         <v>1302</v>
       </c>
@@ -24743,7 +24745,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="386" ht="191" spans="1:3">
+    <row r="386" hidden="1" spans="1:3">
       <c r="A386" s="3" t="s">
         <v>1305</v>
       </c>
@@ -24754,7 +24756,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="387" ht="109" spans="1:3">
+    <row r="387" hidden="1" spans="1:3">
       <c r="A387" s="3" t="s">
         <v>1308</v>
       </c>
@@ -24765,7 +24767,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="388" ht="68" spans="1:3">
+    <row r="388" hidden="1" spans="1:3">
       <c r="A388" s="3" t="s">
         <v>1311</v>
       </c>
@@ -24776,7 +24778,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="389" ht="136" spans="1:3">
+    <row r="389" hidden="1" spans="1:3">
       <c r="A389" s="3" t="s">
         <v>1314</v>
       </c>
@@ -24787,7 +24789,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="390" ht="96" spans="1:3">
+    <row r="390" hidden="1" spans="1:3">
       <c r="A390" s="3" t="s">
         <v>1317</v>
       </c>
@@ -24798,7 +24800,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" hidden="1" spans="1:3">
       <c r="A391" s="3" t="s">
         <v>1320</v>
       </c>
@@ -24809,7 +24811,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="392" spans="1:3">
+    <row r="392" hidden="1" spans="1:3">
       <c r="A392" s="3" t="s">
         <v>1323</v>
       </c>
@@ -24820,7 +24822,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="393" spans="1:3">
+    <row r="393" hidden="1" spans="1:3">
       <c r="A393" s="3" t="s">
         <v>1327</v>
       </c>
@@ -24831,7 +24833,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="394" ht="164" spans="1:3">
+    <row r="394" hidden="1" spans="1:3">
       <c r="A394" s="3" t="s">
         <v>1330</v>
       </c>
@@ -24842,7 +24844,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="395" ht="218" spans="1:3">
+    <row r="395" hidden="1" spans="1:3">
       <c r="A395" s="3" t="s">
         <v>1333</v>
       </c>
@@ -24853,7 +24855,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="396" ht="68" spans="1:3">
+    <row r="396" hidden="1" spans="1:3">
       <c r="A396" s="3" t="s">
         <v>1336</v>
       </c>
@@ -24864,7 +24866,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="397" spans="1:3">
+    <row r="397" hidden="1" spans="1:3">
       <c r="A397" s="3" t="s">
         <v>1339</v>
       </c>
@@ -24875,7 +24877,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="398" ht="96" spans="1:3">
+    <row r="398" hidden="1" spans="1:3">
       <c r="A398" s="3" t="s">
         <v>1342</v>
       </c>
@@ -24886,7 +24888,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="399" ht="109" spans="1:3">
+    <row r="399" hidden="1" spans="1:3">
       <c r="A399" s="3" t="s">
         <v>1345</v>
       </c>
@@ -24897,7 +24899,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="400" ht="68" spans="1:3">
+    <row r="400" hidden="1" spans="1:3">
       <c r="A400" s="3" t="s">
         <v>1348</v>
       </c>
@@ -24908,7 +24910,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="401" ht="191" spans="1:3">
+    <row r="401" hidden="1" spans="1:3">
       <c r="A401" s="3" t="s">
         <v>1351</v>
       </c>
@@ -24919,7 +24921,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="402" ht="259" spans="1:3">
+    <row r="402" hidden="1" spans="1:3">
       <c r="A402" s="3" t="s">
         <v>1355</v>
       </c>
@@ -24930,7 +24932,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="403" ht="245" spans="1:3">
+    <row r="403" hidden="1" spans="1:3">
       <c r="A403" s="3" t="s">
         <v>1358</v>
       </c>
@@ -24941,7 +24943,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="404" ht="41" spans="1:3">
+    <row r="404" hidden="1" spans="1:3">
       <c r="A404" s="3" t="s">
         <v>1361</v>
       </c>
@@ -24952,7 +24954,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="405" ht="191" spans="1:3">
+    <row r="405" hidden="1" spans="1:3">
       <c r="A405" s="3" t="s">
         <v>1364</v>
       </c>
@@ -24963,7 +24965,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="406" ht="164" spans="1:3">
+    <row r="406" hidden="1" spans="1:3">
       <c r="A406" s="3" t="s">
         <v>1367</v>
       </c>
@@ -24974,7 +24976,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="407" spans="1:3">
+    <row r="407" hidden="1" spans="1:3">
       <c r="A407" s="3" t="s">
         <v>1370</v>
       </c>
@@ -24985,7 +24987,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="408" ht="136" spans="1:3">
+    <row r="408" hidden="1" spans="1:3">
       <c r="A408" s="3" t="s">
         <v>1372</v>
       </c>
@@ -24996,7 +24998,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="409" ht="232" spans="1:3">
+    <row r="409" hidden="1" spans="1:3">
       <c r="A409" s="3" t="s">
         <v>1375</v>
       </c>
@@ -25007,7 +25009,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="410" ht="82" spans="1:3">
+    <row r="410" hidden="1" spans="1:3">
       <c r="A410" s="3" t="s">
         <v>1378</v>
       </c>
@@ -25018,7 +25020,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="411" ht="55" spans="1:3">
+    <row r="411" hidden="1" spans="1:3">
       <c r="A411" s="3" t="s">
         <v>1381</v>
       </c>
@@ -25029,7 +25031,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="412" ht="82" spans="1:3">
+    <row r="412" hidden="1" spans="1:3">
       <c r="A412" s="3" t="s">
         <v>1384</v>
       </c>
@@ -25040,7 +25042,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="413" ht="68" spans="1:3">
+    <row r="413" hidden="1" spans="1:3">
       <c r="A413" s="3" t="s">
         <v>1387</v>
       </c>
@@ -25051,7 +25053,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="414" ht="164" spans="1:3">
+    <row r="414" hidden="1" spans="1:3">
       <c r="A414" s="3" t="s">
         <v>1390</v>
       </c>
@@ -25062,7 +25064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="415" ht="68" spans="1:3">
+    <row r="415" hidden="1" spans="1:3">
       <c r="A415" s="3" t="s">
         <v>1393</v>
       </c>
@@ -25073,7 +25075,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="416" spans="1:3">
+    <row r="416" hidden="1" spans="1:3">
       <c r="A416" s="3" t="s">
         <v>1396</v>
       </c>
@@ -25084,7 +25086,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="417" ht="41" spans="1:3">
+    <row r="417" hidden="1" spans="1:3">
       <c r="A417" s="3" t="s">
         <v>1400</v>
       </c>
@@ -25095,7 +25097,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="418" spans="1:3">
+    <row r="418" hidden="1" spans="1:3">
       <c r="A418" s="3" t="s">
         <v>1403</v>
       </c>
@@ -25106,7 +25108,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="419" ht="123" spans="1:3">
+    <row r="419" hidden="1" spans="1:3">
       <c r="A419" s="3" t="s">
         <v>1406</v>
       </c>
@@ -25117,7 +25119,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="420" ht="55" spans="1:3">
+    <row r="420" hidden="1" spans="1:3">
       <c r="A420" s="3" t="s">
         <v>1409</v>
       </c>
@@ -25128,7 +25130,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="421" ht="245" spans="1:3">
+    <row r="421" hidden="1" spans="1:3">
       <c r="A421" s="3" t="s">
         <v>1412</v>
       </c>
@@ -25139,7 +25141,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="422" ht="286" spans="1:3">
+    <row r="422" hidden="1" spans="1:3">
       <c r="A422" s="3" t="s">
         <v>1415</v>
       </c>
@@ -25150,7 +25152,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="423" ht="55" spans="1:3">
+    <row r="423" hidden="1" spans="1:3">
       <c r="A423" s="3" t="s">
         <v>1418</v>
       </c>
@@ -25161,7 +25163,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="424" ht="204" spans="1:3">
+    <row r="424" hidden="1" spans="1:3">
       <c r="A424" s="3" t="s">
         <v>1422</v>
       </c>
@@ -25172,7 +25174,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="425" ht="123" spans="1:3">
+    <row r="425" hidden="1" spans="1:3">
       <c r="A425" s="3" t="s">
         <v>1425</v>
       </c>
@@ -25183,7 +25185,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="426" ht="204" spans="1:3">
+    <row r="426" hidden="1" spans="1:3">
       <c r="A426" s="3" t="s">
         <v>1428</v>
       </c>
@@ -25194,7 +25196,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="427" ht="123" spans="1:3">
+    <row r="427" hidden="1" spans="1:3">
       <c r="A427" s="3" t="s">
         <v>1432</v>
       </c>
@@ -25205,7 +25207,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="428" ht="164" spans="1:3">
+    <row r="428" hidden="1" spans="1:3">
       <c r="A428" s="3" t="s">
         <v>1435</v>
       </c>
@@ -25216,7 +25218,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="429" ht="82" spans="1:3">
+    <row r="429" hidden="1" spans="1:3">
       <c r="A429" s="3" t="s">
         <v>1438</v>
       </c>
@@ -25227,7 +25229,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="430" spans="1:3">
+    <row r="430" hidden="1" spans="1:3">
       <c r="A430" s="3" t="s">
         <v>1441</v>
       </c>
@@ -25238,7 +25240,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="431" spans="1:3">
+    <row r="431" hidden="1" spans="1:3">
       <c r="A431" s="3" t="s">
         <v>1444</v>
       </c>
@@ -25249,7 +25251,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="432" spans="1:3">
+    <row r="432" hidden="1" spans="1:3">
       <c r="A432" s="3" t="s">
         <v>1448</v>
       </c>
@@ -25260,7 +25262,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="433" ht="204" spans="1:3">
+    <row r="433" hidden="1" spans="1:3">
       <c r="A433" s="3" t="s">
         <v>1451</v>
       </c>
@@ -25271,7 +25273,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="434" ht="123" spans="1:3">
+    <row r="434" hidden="1" spans="1:3">
       <c r="A434" s="3" t="s">
         <v>1454</v>
       </c>
@@ -25282,7 +25284,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="435" ht="109" spans="1:3">
+    <row r="435" hidden="1" spans="1:3">
       <c r="A435" s="3" t="s">
         <v>1457</v>
       </c>
@@ -25293,7 +25295,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="436" ht="136" spans="1:3">
+    <row r="436" hidden="1" spans="1:3">
       <c r="A436" s="3" t="s">
         <v>1460</v>
       </c>
@@ -25304,7 +25306,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="437" spans="1:3">
+    <row r="437" hidden="1" spans="1:3">
       <c r="A437" s="3" t="s">
         <v>1463</v>
       </c>
@@ -25315,7 +25317,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="438" ht="41" spans="1:3">
+    <row r="438" hidden="1" spans="1:3">
       <c r="A438" s="3" t="s">
         <v>1466</v>
       </c>
@@ -25326,7 +25328,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="439" ht="123" spans="1:3">
+    <row r="439" hidden="1" spans="1:3">
       <c r="A439" s="3" t="s">
         <v>1469</v>
       </c>
@@ -25337,7 +25339,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="440" ht="164" spans="1:3">
+    <row r="440" hidden="1" spans="1:3">
       <c r="A440" s="3" t="s">
         <v>1472</v>
       </c>
@@ -25348,7 +25350,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="441" ht="55" spans="1:3">
+    <row r="441" hidden="1" spans="1:3">
       <c r="A441" s="3" t="s">
         <v>1475</v>
       </c>
@@ -25359,7 +25361,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="442" ht="68" spans="1:3">
+    <row r="442" hidden="1" spans="1:3">
       <c r="A442" s="3" t="s">
         <v>1478</v>
       </c>
@@ -25370,7 +25372,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="443" spans="1:3">
+    <row r="443" hidden="1" spans="1:3">
       <c r="A443" s="3" t="s">
         <v>1481</v>
       </c>
@@ -25381,7 +25383,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="444" spans="1:3">
+    <row r="444" hidden="1" spans="1:3">
       <c r="A444" s="3" t="s">
         <v>1484</v>
       </c>
@@ -25392,7 +25394,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="445" spans="1:3">
+    <row r="445" hidden="1" spans="1:3">
       <c r="A445" s="3" t="s">
         <v>1488</v>
       </c>
@@ -25403,7 +25405,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="446" spans="1:3">
+    <row r="446" hidden="1" spans="1:3">
       <c r="A446" s="3" t="s">
         <v>1491</v>
       </c>
@@ -25414,7 +25416,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="447" spans="1:3">
+    <row r="447" hidden="1" spans="1:3">
       <c r="A447" s="3" t="s">
         <v>1494</v>
       </c>
@@ -25425,7 +25427,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="448" ht="109" spans="1:3">
+    <row r="448" hidden="1" spans="1:3">
       <c r="A448" s="3" t="s">
         <v>1497</v>
       </c>
@@ -25436,7 +25438,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="449" ht="82" spans="1:3">
+    <row r="449" hidden="1" spans="1:3">
       <c r="A449" s="3" t="s">
         <v>1500</v>
       </c>
@@ -25447,7 +25449,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="450" spans="1:3">
+    <row r="450" hidden="1" spans="1:3">
       <c r="A450" s="3" t="s">
         <v>1503</v>
       </c>
@@ -25458,7 +25460,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="451" ht="150" spans="1:3">
+    <row r="451" hidden="1" spans="1:3">
       <c r="A451" s="3" t="s">
         <v>1506</v>
       </c>
@@ -25469,7 +25471,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="452" ht="123" spans="1:3">
+    <row r="452" hidden="1" spans="1:3">
       <c r="A452" s="3" t="s">
         <v>1509</v>
       </c>
@@ -25480,7 +25482,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="453" ht="96" spans="1:3">
+    <row r="453" hidden="1" spans="1:3">
       <c r="A453" s="3" t="s">
         <v>1513</v>
       </c>
@@ -25491,7 +25493,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="454" spans="1:3">
+    <row r="454" hidden="1" spans="1:3">
       <c r="A454" s="3" t="s">
         <v>1516</v>
       </c>
@@ -25502,7 +25504,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="455" ht="41" spans="1:3">
+    <row r="455" hidden="1" spans="1:3">
       <c r="A455" s="3" t="s">
         <v>1520</v>
       </c>
@@ -25513,7 +25515,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="456" ht="245" spans="1:3">
+    <row r="456" hidden="1" spans="1:3">
       <c r="A456" s="3" t="s">
         <v>1523</v>
       </c>
@@ -25524,7 +25526,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="457" ht="55" spans="1:3">
+    <row r="457" hidden="1" spans="1:3">
       <c r="A457" s="3" t="s">
         <v>1526</v>
       </c>
@@ -25535,7 +25537,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="458" ht="164" spans="1:3">
+    <row r="458" hidden="1" spans="1:3">
       <c r="A458" s="3" t="s">
         <v>1529</v>
       </c>
@@ -25546,7 +25548,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="459" spans="1:3">
+    <row r="459" hidden="1" spans="1:3">
       <c r="A459" s="3" t="s">
         <v>1532</v>
       </c>
@@ -25557,7 +25559,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="460" spans="1:3">
+    <row r="460" hidden="1" spans="1:3">
       <c r="A460" s="3" t="s">
         <v>1535</v>
       </c>
@@ -25568,7 +25570,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="461" spans="1:3">
+    <row r="461" hidden="1" spans="1:3">
       <c r="A461" s="3" t="s">
         <v>1539</v>
       </c>
@@ -25579,7 +25581,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="462" ht="245" spans="1:3">
+    <row r="462" hidden="1" spans="1:3">
       <c r="A462" s="3" t="s">
         <v>1542</v>
       </c>
@@ -25590,7 +25592,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="463" spans="1:3">
+    <row r="463" hidden="1" spans="1:3">
       <c r="A463" s="3" t="s">
         <v>1546</v>
       </c>
@@ -25601,7 +25603,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="464" ht="218" spans="1:3">
+    <row r="464" hidden="1" spans="1:3">
       <c r="A464" s="3" t="s">
         <v>1549</v>
       </c>
@@ -25612,7 +25614,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="465" ht="123" spans="1:3">
+    <row r="465" hidden="1" spans="1:3">
       <c r="A465" s="3" t="s">
         <v>1552</v>
       </c>
@@ -25623,7 +25625,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="466" ht="123" spans="1:3">
+    <row r="466" hidden="1" spans="1:3">
       <c r="A466" s="3" t="s">
         <v>1555</v>
       </c>
@@ -25634,7 +25636,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="467" ht="82" spans="1:3">
+    <row r="467" hidden="1" spans="1:3">
       <c r="A467" s="3" t="s">
         <v>1558</v>
       </c>
@@ -25645,7 +25647,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="468" ht="136" spans="1:3">
+    <row r="468" hidden="1" spans="1:3">
       <c r="A468" s="3" t="s">
         <v>1561</v>
       </c>
@@ -25656,7 +25658,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="469" spans="1:3">
+    <row r="469" hidden="1" spans="1:3">
       <c r="A469" s="3" t="s">
         <v>1564</v>
       </c>
@@ -25667,7 +25669,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="470" ht="136" spans="1:3">
+    <row r="470" hidden="1" spans="1:3">
       <c r="A470" s="3" t="s">
         <v>1567</v>
       </c>
@@ -25678,7 +25680,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="471" ht="96" spans="1:3">
+    <row r="471" hidden="1" spans="1:3">
       <c r="A471" s="3" t="s">
         <v>1570</v>
       </c>
@@ -25689,7 +25691,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="472" ht="96" spans="1:3">
+    <row r="472" hidden="1" spans="1:3">
       <c r="A472" s="3" t="s">
         <v>1573</v>
       </c>
@@ -25700,7 +25702,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="473" ht="232" spans="1:3">
+    <row r="473" hidden="1" spans="1:3">
       <c r="A473" s="3" t="s">
         <v>1576</v>
       </c>
@@ -25711,7 +25713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="474" ht="232" spans="1:3">
+    <row r="474" hidden="1" spans="1:3">
       <c r="A474" s="3" t="s">
         <v>1579</v>
       </c>
@@ -25722,7 +25724,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="475" ht="82" spans="1:3">
+    <row r="475" hidden="1" spans="1:3">
       <c r="A475" s="3" t="s">
         <v>1582</v>
       </c>
@@ -25733,7 +25735,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="476" ht="177" spans="1:3">
+    <row r="476" hidden="1" spans="1:3">
       <c r="A476" s="3" t="s">
         <v>1585</v>
       </c>
@@ -25744,7 +25746,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="477" spans="1:3">
+    <row r="477" hidden="1" spans="1:3">
       <c r="A477" s="3" t="s">
         <v>1588</v>
       </c>
@@ -25755,7 +25757,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="478" ht="109" spans="1:3">
+    <row r="478" hidden="1" spans="1:3">
       <c r="A478" s="3" t="s">
         <v>1591</v>
       </c>
@@ -25766,7 +25768,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="479" ht="150" spans="1:3">
+    <row r="479" hidden="1" spans="1:3">
       <c r="A479" s="3" t="s">
         <v>1594</v>
       </c>
@@ -25777,7 +25779,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="480" ht="232" spans="1:3">
+    <row r="480" hidden="1" spans="1:3">
       <c r="A480" s="3" t="s">
         <v>1597</v>
       </c>
@@ -25788,7 +25790,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="481" ht="82" spans="1:3">
+    <row r="481" hidden="1" spans="1:3">
       <c r="A481" s="3" t="s">
         <v>1600</v>
       </c>
@@ -25799,7 +25801,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="482" ht="123" spans="1:3">
+    <row r="482" hidden="1" spans="1:3">
       <c r="A482" s="3" t="s">
         <v>1603</v>
       </c>
@@ -25810,7 +25812,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="483" ht="68" spans="1:3">
+    <row r="483" hidden="1" spans="1:3">
       <c r="A483" s="3" t="s">
         <v>1606</v>
       </c>
@@ -25821,7 +25823,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="484" spans="1:3">
+    <row r="484" hidden="1" spans="1:3">
       <c r="A484" s="3" t="s">
         <v>1609</v>
       </c>
@@ -25832,7 +25834,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="485" ht="55" spans="1:3">
+    <row r="485" hidden="1" spans="1:3">
       <c r="A485" s="3" t="s">
         <v>1612</v>
       </c>
@@ -25843,7 +25845,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="486" ht="204" spans="1:3">
+    <row r="486" hidden="1" spans="1:3">
       <c r="A486" s="3" t="s">
         <v>1615</v>
       </c>
@@ -25854,7 +25856,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="487" ht="218" spans="1:3">
+    <row r="487" hidden="1" spans="1:3">
       <c r="A487" s="3" t="s">
         <v>1618</v>
       </c>
@@ -25865,7 +25867,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="488" ht="136" spans="1:3">
+    <row r="488" hidden="1" spans="1:3">
       <c r="A488" s="3" t="s">
         <v>1621</v>
       </c>
@@ -25876,7 +25878,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="489" spans="1:3">
+    <row r="489" hidden="1" spans="1:3">
       <c r="A489" s="3" t="s">
         <v>1624</v>
       </c>
@@ -25887,7 +25889,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="490" spans="1:3">
+    <row r="490" hidden="1" spans="1:3">
       <c r="A490" s="3" t="s">
         <v>1626</v>
       </c>
@@ -25898,7 +25900,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="491" ht="136" spans="1:3">
+    <row r="491" hidden="1" spans="1:3">
       <c r="A491" s="3" t="s">
         <v>1629</v>
       </c>
@@ -25909,7 +25911,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="492" ht="82" spans="1:3">
+    <row r="492" hidden="1" spans="1:3">
       <c r="A492" s="3" t="s">
         <v>1632</v>
       </c>
@@ -25920,7 +25922,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="493" ht="109" spans="1:3">
+    <row r="493" hidden="1" spans="1:3">
       <c r="A493" s="3" t="s">
         <v>1635</v>
       </c>
@@ -25931,7 +25933,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="494" ht="123" spans="1:3">
+    <row r="494" hidden="1" spans="1:3">
       <c r="A494" s="3" t="s">
         <v>1638</v>
       </c>
@@ -25942,7 +25944,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="495" ht="96" spans="1:3">
+    <row r="495" hidden="1" spans="1:3">
       <c r="A495" s="3" t="s">
         <v>1641</v>
       </c>
@@ -25953,7 +25955,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="496" ht="245" spans="1:3">
+    <row r="496" hidden="1" spans="1:3">
       <c r="A496" s="3" t="s">
         <v>1644</v>
       </c>
@@ -25964,7 +25966,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="497" ht="109" spans="1:3">
+    <row r="497" hidden="1" spans="1:3">
       <c r="A497" s="3" t="s">
         <v>1647</v>
       </c>
@@ -25975,7 +25977,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="498" spans="1:3">
+    <row r="498" hidden="1" spans="1:3">
       <c r="A498" s="3" t="s">
         <v>1650</v>
       </c>
@@ -25986,7 +25988,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="499" ht="41" spans="1:3">
+    <row r="499" hidden="1" spans="1:3">
       <c r="A499" s="3" t="s">
         <v>1653</v>
       </c>
@@ -25997,7 +25999,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="500" ht="68" spans="1:3">
+    <row r="500" hidden="1" spans="1:3">
       <c r="A500" s="3" t="s">
         <v>1656</v>
       </c>
@@ -26008,7 +26010,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="501" spans="1:3">
+    <row r="501" hidden="1" spans="1:3">
       <c r="A501" s="3" t="s">
         <v>1659</v>
       </c>
@@ -26019,7 +26021,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="502" spans="1:3">
+    <row r="502" hidden="1" spans="1:3">
       <c r="A502" s="3" t="s">
         <v>1662</v>
       </c>
@@ -26030,7 +26032,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="503" spans="1:3">
+    <row r="503" hidden="1" spans="1:3">
       <c r="A503" s="3" t="s">
         <v>1666</v>
       </c>
@@ -26041,7 +26043,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="504" ht="96" spans="1:3">
+    <row r="504" hidden="1" spans="1:3">
       <c r="A504" s="3" t="s">
         <v>1669</v>
       </c>
@@ -26052,7 +26054,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="505" spans="1:3">
+    <row r="505" hidden="1" spans="1:3">
       <c r="A505" s="3" t="s">
         <v>1672</v>
       </c>
@@ -26063,7 +26065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="506" ht="245" spans="1:3">
+    <row r="506" hidden="1" spans="1:3">
       <c r="A506" s="3" t="s">
         <v>1675</v>
       </c>
@@ -26074,7 +26076,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="507" ht="272" spans="1:3">
+    <row r="507" hidden="1" spans="1:3">
       <c r="A507" s="3" t="s">
         <v>1678</v>
       </c>
@@ -26085,7 +26087,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="508" ht="136" spans="1:3">
+    <row r="508" hidden="1" spans="1:3">
       <c r="A508" s="3" t="s">
         <v>1681</v>
       </c>
@@ -26096,7 +26098,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="509" ht="177" spans="1:3">
+    <row r="509" hidden="1" spans="1:3">
       <c r="A509" s="3" t="s">
         <v>1684</v>
       </c>
@@ -26107,7 +26109,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="510" ht="109" spans="1:3">
+    <row r="510" hidden="1" spans="1:3">
       <c r="A510" s="3" t="s">
         <v>1687</v>
       </c>
@@ -26118,7 +26120,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="511" ht="68" spans="1:3">
+    <row r="511" hidden="1" spans="1:3">
       <c r="A511" s="3" t="s">
         <v>1690</v>
       </c>
@@ -26129,7 +26131,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="512" ht="55" spans="1:3">
+    <row r="512" hidden="1" spans="1:3">
       <c r="A512" s="3" t="s">
         <v>1693</v>
       </c>
@@ -26140,7 +26142,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="513" ht="164" spans="1:3">
+    <row r="513" hidden="1" spans="1:3">
       <c r="A513" s="3" t="s">
         <v>1696</v>
       </c>
@@ -26151,7 +26153,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="514" ht="68" spans="1:3">
+    <row r="514" hidden="1" spans="1:3">
       <c r="A514" s="3" t="s">
         <v>1699</v>
       </c>
@@ -26162,7 +26164,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="515" ht="68" spans="1:3">
+    <row r="515" hidden="1" spans="1:3">
       <c r="A515" s="3" t="s">
         <v>1703</v>
       </c>
@@ -26173,7 +26175,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="516" spans="1:3">
+    <row r="516" hidden="1" spans="1:3">
       <c r="A516" s="3" t="s">
         <v>1706</v>
       </c>
@@ -26184,7 +26186,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="517" spans="1:3">
+    <row r="517" hidden="1" spans="1:3">
       <c r="A517" s="3" t="s">
         <v>1709</v>
       </c>
@@ -26195,7 +26197,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="518" spans="1:3">
+    <row r="518" hidden="1" spans="1:3">
       <c r="A518" s="3" t="s">
         <v>1713</v>
       </c>
@@ -26206,7 +26208,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="519" ht="109" spans="1:3">
+    <row r="519" hidden="1" spans="1:3">
       <c r="A519" s="3" t="s">
         <v>1716</v>
       </c>
@@ -26217,7 +26219,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="520" spans="1:3">
+    <row r="520" hidden="1" spans="1:3">
       <c r="A520" s="3" t="s">
         <v>1719</v>
       </c>
@@ -26228,7 +26230,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="521" ht="82" spans="1:3">
+    <row r="521" hidden="1" spans="1:3">
       <c r="A521" s="3" t="s">
         <v>1722</v>
       </c>
@@ -26239,7 +26241,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="522" ht="232" spans="1:3">
+    <row r="522" hidden="1" spans="1:3">
       <c r="A522" s="3" t="s">
         <v>1725</v>
       </c>
@@ -26250,7 +26252,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="523" ht="177" spans="1:3">
+    <row r="523" hidden="1" spans="1:3">
       <c r="A523" s="3" t="s">
         <v>1728</v>
       </c>
@@ -26261,7 +26263,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="524" spans="1:3">
+    <row r="524" hidden="1" spans="1:3">
       <c r="A524" s="3" t="s">
         <v>1731</v>
       </c>
@@ -26272,7 +26274,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="525" ht="136" spans="1:3">
+    <row r="525" hidden="1" spans="1:3">
       <c r="A525" s="3" t="s">
         <v>1734</v>
       </c>
@@ -26283,7 +26285,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="526" ht="191" spans="1:3">
+    <row r="526" hidden="1" spans="1:3">
       <c r="A526" s="3" t="s">
         <v>1737</v>
       </c>
@@ -26294,7 +26296,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="527" ht="55" spans="1:3">
+    <row r="527" hidden="1" spans="1:3">
       <c r="A527" s="3" t="s">
         <v>1740</v>
       </c>
@@ -26305,7 +26307,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="528" ht="150" spans="1:3">
+    <row r="528" hidden="1" spans="1:3">
       <c r="A528" s="3" t="s">
         <v>1743</v>
       </c>
@@ -26316,7 +26318,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="529" ht="82" spans="1:3">
+    <row r="529" hidden="1" spans="1:3">
       <c r="A529" s="3" t="s">
         <v>1746</v>
       </c>
@@ -26327,7 +26329,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="530" ht="354" spans="1:3">
+    <row r="530" hidden="1" spans="1:3">
       <c r="A530" s="3" t="s">
         <v>1749</v>
       </c>
@@ -26338,7 +26340,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="531" ht="164" spans="1:3">
+    <row r="531" hidden="1" spans="1:3">
       <c r="A531" s="3" t="s">
         <v>1752</v>
       </c>
@@ -26349,7 +26351,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="532" spans="1:3">
+    <row r="532" hidden="1" spans="1:3">
       <c r="A532" s="3" t="s">
         <v>1755</v>
       </c>
@@ -26360,7 +26362,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="533" spans="1:3">
+    <row r="533" hidden="1" spans="1:3">
       <c r="A533" s="3" t="s">
         <v>1758</v>
       </c>
@@ -26371,7 +26373,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="534" spans="1:3">
+    <row r="534" hidden="1" spans="1:3">
       <c r="A534" s="3" t="s">
         <v>1761</v>
       </c>
@@ -26382,7 +26384,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="535" ht="96" spans="1:3">
+    <row r="535" hidden="1" spans="1:3">
       <c r="A535" s="3" t="s">
         <v>1764</v>
       </c>
@@ -26393,7 +26395,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="536" spans="1:3">
+    <row r="536" hidden="1" spans="1:3">
       <c r="A536" s="3" t="s">
         <v>1767</v>
       </c>
@@ -26404,7 +26406,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="537" spans="1:3">
+    <row r="537" hidden="1" spans="1:3">
       <c r="A537" s="3" t="s">
         <v>1770</v>
       </c>
@@ -26415,7 +26417,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="538" spans="1:3">
+    <row r="538" hidden="1" spans="1:3">
       <c r="A538" s="3" t="s">
         <v>1774</v>
       </c>
@@ -26426,7 +26428,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="539" ht="109" spans="1:3">
+    <row r="539" hidden="1" spans="1:3">
       <c r="A539" s="3" t="s">
         <v>1777</v>
       </c>
@@ -26437,7 +26439,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="540" spans="1:3">
+    <row r="540" hidden="1" spans="1:3">
       <c r="A540" s="3" t="s">
         <v>1780</v>
       </c>
@@ -26448,7 +26450,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="541" ht="96" spans="1:3">
+    <row r="541" hidden="1" spans="1:3">
       <c r="A541" s="3" t="s">
         <v>1783</v>
       </c>
@@ -26459,7 +26461,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="542" ht="123" spans="1:3">
+    <row r="542" hidden="1" spans="1:3">
       <c r="A542" s="3" t="s">
         <v>1786</v>
       </c>
@@ -26470,7 +26472,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="543" ht="82" spans="1:3">
+    <row r="543" hidden="1" spans="1:3">
       <c r="A543" s="3" t="s">
         <v>1789</v>
       </c>
@@ -26481,7 +26483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="544" spans="1:3">
+    <row r="544" hidden="1" spans="1:3">
       <c r="A544" s="3" t="s">
         <v>1792</v>
       </c>
@@ -26492,7 +26494,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="545" spans="1:3">
+    <row r="545" hidden="1" spans="1:3">
       <c r="A545" s="3" t="s">
         <v>1795</v>
       </c>
@@ -26503,7 +26505,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="546" spans="1:3">
+    <row r="546" hidden="1" spans="1:3">
       <c r="A546" s="3" t="s">
         <v>1799</v>
       </c>
@@ -26514,7 +26516,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="547" spans="1:3">
+    <row r="547" hidden="1" spans="1:3">
       <c r="A547" s="3" t="s">
         <v>1802</v>
       </c>
@@ -26525,7 +26527,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="548" ht="82" spans="1:3">
+    <row r="548" hidden="1" spans="1:3">
       <c r="A548" s="3" t="s">
         <v>1804</v>
       </c>
@@ -26536,7 +26538,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="549" spans="1:3">
+    <row r="549" hidden="1" spans="1:3">
       <c r="A549" s="3" t="s">
         <v>1807</v>
       </c>
@@ -26547,7 +26549,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="550" spans="1:3">
+    <row r="550" hidden="1" spans="1:3">
       <c r="A550" s="3" t="s">
         <v>1810</v>
       </c>
@@ -26558,7 +26560,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="551" spans="1:3">
+    <row r="551" hidden="1" spans="1:3">
       <c r="A551" s="3" t="s">
         <v>1814</v>
       </c>
@@ -26569,7 +26571,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="552" ht="164" spans="1:3">
+    <row r="552" hidden="1" spans="1:3">
       <c r="A552" s="3" t="s">
         <v>1817</v>
       </c>
@@ -26580,7 +26582,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="553" spans="1:3">
+    <row r="553" hidden="1" spans="1:3">
       <c r="A553" s="3" t="s">
         <v>1820</v>
       </c>
@@ -26591,7 +26593,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="554" ht="55" spans="1:3">
+    <row r="554" hidden="1" spans="1:3">
       <c r="A554" s="3" t="s">
         <v>1823</v>
       </c>
@@ -26602,7 +26604,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="555" ht="150" spans="1:3">
+    <row r="555" hidden="1" spans="1:3">
       <c r="A555" s="3" t="s">
         <v>1826</v>
       </c>
@@ -26613,7 +26615,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="556" ht="123" spans="1:3">
+    <row r="556" hidden="1" spans="1:3">
       <c r="A556" s="3" t="s">
         <v>1829</v>
       </c>
@@ -26624,7 +26626,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="557" ht="109" spans="1:3">
+    <row r="557" hidden="1" spans="1:3">
       <c r="A557" s="3" t="s">
         <v>1832</v>
       </c>
@@ -26635,7 +26637,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="558" ht="136" spans="1:3">
+    <row r="558" hidden="1" spans="1:3">
       <c r="A558" s="3" t="s">
         <v>1835</v>
       </c>
@@ -26646,7 +26648,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="559" ht="68" spans="1:3">
+    <row r="559" hidden="1" spans="1:3">
       <c r="A559" s="3" t="s">
         <v>1838</v>
       </c>
@@ -26657,7 +26659,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="560" ht="232" spans="1:3">
+    <row r="560" hidden="1" spans="1:3">
       <c r="A560" s="3" t="s">
         <v>1841</v>
       </c>
@@ -26668,7 +26670,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="561" spans="1:3">
+    <row r="561" hidden="1" spans="1:3">
       <c r="A561" s="3" t="s">
         <v>1844</v>
       </c>
@@ -26680,12 +26682,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E561"/>
+  <autoFilter ref="D1:D561">
+    <filterColumn colId="0">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="C$1:C$1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D127">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
